--- a/outcome/appendix/data/PHSMs/Dengue fever.xlsx
+++ b/outcome/appendix/data/PHSMs/Dengue fever.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,16 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">登革热</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
   </si>
 </sst>
 </file>
@@ -403,31 +412,43 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>409.978668906736</v>
+        <v>583.269232182757</v>
       </c>
       <c r="C2" t="n">
-        <v>-2306.71596162741</v>
+        <v>-2099.21751673993</v>
       </c>
       <c r="D2" t="n">
-        <v>-3703.7830004807</v>
+        <v>-4215.88333457504</v>
       </c>
       <c r="E2" t="n">
-        <v>3319.93316318665</v>
+        <v>3724.31652654681</v>
       </c>
       <c r="F2" t="n">
-        <v>5085.63824373132</v>
+        <v>4956.41332042878</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>71</v>
+      </c>
+      <c r="I2" t="n">
+        <v>512.269232182757</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -435,25 +456,31 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>340.669194567075</v>
+        <v>927.228868366581</v>
       </c>
       <c r="C3" t="n">
-        <v>-3761.64935120198</v>
+        <v>-3153.04018429487</v>
       </c>
       <c r="D3" t="n">
-        <v>-5627.95862329331</v>
+        <v>-5786.02009523547</v>
       </c>
       <c r="E3" t="n">
-        <v>4403.39235517772</v>
+        <v>5110.00207521072</v>
       </c>
       <c r="F3" t="n">
-        <v>6761.54469090921</v>
+        <v>7989.24101037708</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>17</v>
+      </c>
+      <c r="I3" t="n">
+        <v>910.228868366581</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -461,25 +488,31 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>297.511349487631</v>
+        <v>1050.97111514446</v>
       </c>
       <c r="C4" t="n">
-        <v>-4573.95158015852</v>
+        <v>-4209.45840150159</v>
       </c>
       <c r="D4" t="n">
-        <v>-7982.39752882311</v>
+        <v>-7112.9907475051</v>
       </c>
       <c r="E4" t="n">
-        <v>5486.16278245312</v>
+        <v>6715.83389398167</v>
       </c>
       <c r="F4" t="n">
-        <v>8875.31656799868</v>
+        <v>9828.08141618121</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>16</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1034.97111514446</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -487,25 +520,31 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>560.098554789385</v>
+        <v>1018.26618502985</v>
       </c>
       <c r="C5" t="n">
-        <v>-5593.80295819241</v>
+        <v>-4935.45562634775</v>
       </c>
       <c r="D5" t="n">
-        <v>-7132.29227115094</v>
+        <v>-8084.6717682033</v>
       </c>
       <c r="E5" t="n">
-        <v>6545.78909585018</v>
+        <v>7385.84548359972</v>
       </c>
       <c r="F5" t="n">
-        <v>10547.1398685162</v>
+        <v>10569.3238783512</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1012.26618502985</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -513,25 +552,31 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>466.119519433734</v>
+        <v>1021.57615728591</v>
       </c>
       <c r="C6" t="n">
-        <v>-6267.52046571498</v>
+        <v>-5380.44912451408</v>
       </c>
       <c r="D6" t="n">
-        <v>-9169.72945166824</v>
+        <v>-8975.92749661508</v>
       </c>
       <c r="E6" t="n">
-        <v>6831.05235147082</v>
+        <v>7319.41554813831</v>
       </c>
       <c r="F6" t="n">
-        <v>11383.3271750487</v>
+        <v>10383.1679438645</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1017.57615728591</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -539,25 +584,31 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>381.984955861722</v>
+        <v>951.34675683549</v>
       </c>
       <c r="C7" t="n">
-        <v>-6543.60126009531</v>
+        <v>-5753.83720762505</v>
       </c>
       <c r="D7" t="n">
-        <v>-10733.1132046701</v>
+        <v>-9367.34129307188</v>
       </c>
       <c r="E7" t="n">
-        <v>7887.43004144609</v>
+        <v>7529.62656937278</v>
       </c>
       <c r="F7" t="n">
-        <v>11942.5128098101</v>
+        <v>11260.8562026312</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>947.34675683549</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -565,25 +616,31 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>208.248963490512</v>
+        <v>848.670408531436</v>
       </c>
       <c r="C8" t="n">
-        <v>-7607.95274250264</v>
+        <v>-6675.39082952321</v>
       </c>
       <c r="D8" t="n">
-        <v>-11930.233686975</v>
+        <v>-10164.3387695502</v>
       </c>
       <c r="E8" t="n">
-        <v>8570.78025529466</v>
+        <v>7746.62982859722</v>
       </c>
       <c r="F8" t="n">
-        <v>14300.1647773424</v>
+        <v>10905.2431614192</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>55</v>
+      </c>
+      <c r="I8" t="n">
+        <v>793.670408531436</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -591,25 +648,31 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>411.378348823871</v>
+        <v>1508.20737454056</v>
       </c>
       <c r="C9" t="n">
-        <v>-8827.1662902103</v>
+        <v>-5681.69090501813</v>
       </c>
       <c r="D9" t="n">
-        <v>-12419.0498672557</v>
+        <v>-11189.1992261596</v>
       </c>
       <c r="E9" t="n">
-        <v>9268.29500596224</v>
+        <v>9380.96498267031</v>
       </c>
       <c r="F9" t="n">
-        <v>13435.3789934642</v>
+        <v>13403.271024244</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>23</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1485.20737454056</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -617,25 +680,31 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2577.48115346251</v>
+        <v>3386.31800563194</v>
       </c>
       <c r="C10" t="n">
-        <v>-7559.58421986695</v>
+        <v>-4657.04017948331</v>
       </c>
       <c r="D10" t="n">
-        <v>-11292.6216508726</v>
+        <v>-8672.60599727292</v>
       </c>
       <c r="E10" t="n">
-        <v>12365.3307492872</v>
+        <v>11246.7156036003</v>
       </c>
       <c r="F10" t="n">
-        <v>16005.2471884535</v>
+        <v>15211.3101263799</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>247</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3139.31800563194</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -643,25 +712,31 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2795.08150152815</v>
+        <v>3485.30503506909</v>
       </c>
       <c r="C11" t="n">
-        <v>-7101.21014424683</v>
+        <v>-4647.56288025178</v>
       </c>
       <c r="D11" t="n">
-        <v>-10736.3502301503</v>
+        <v>-8444.18869003268</v>
       </c>
       <c r="E11" t="n">
-        <v>12613.8259090058</v>
+        <v>12356.2860155526</v>
       </c>
       <c r="F11" t="n">
-        <v>17565.9337404636</v>
+        <v>15329.7259545535</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>287</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3198.30503506909</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -669,25 +744,31 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>351.636440095912</v>
+        <v>902.091031500848</v>
       </c>
       <c r="C12" t="n">
-        <v>-10130.7980204632</v>
+        <v>-7160.45025356945</v>
       </c>
       <c r="D12" t="n">
-        <v>-13066.0130165546</v>
+        <v>-12978.8649676303</v>
       </c>
       <c r="E12" t="n">
-        <v>10662.1505938799</v>
+        <v>9744.29549746244</v>
       </c>
       <c r="F12" t="n">
-        <v>15649.4475586593</v>
+        <v>14012.7196356717</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>63</v>
+      </c>
+      <c r="I12" t="n">
+        <v>839.091031500848</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -695,25 +776,31 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>94.0044686177968</v>
+        <v>427.004062218944</v>
       </c>
       <c r="C13" t="n">
-        <v>-10096.0566738767</v>
+        <v>-8770.15275742229</v>
       </c>
       <c r="D13" t="n">
-        <v>-15216.100576193</v>
+        <v>-13352.7177977981</v>
       </c>
       <c r="E13" t="n">
-        <v>11342.4173968474</v>
+        <v>10056.5242311196</v>
       </c>
       <c r="F13" t="n">
-        <v>16446.4970978788</v>
+        <v>13689.3854114646</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>418.004062218944</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -721,25 +808,31 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>-13.557531026095</v>
+        <v>450.978908464977</v>
       </c>
       <c r="C14" t="n">
-        <v>-10773.9074789137</v>
+        <v>-8435.574787013</v>
       </c>
       <c r="D14" t="n">
-        <v>-16423.3381306604</v>
+        <v>-14533.4895406246</v>
       </c>
       <c r="E14" t="n">
-        <v>11562.897141535</v>
+        <v>9955.90275475545</v>
       </c>
       <c r="F14" t="n">
-        <v>16837.5525712829</v>
+        <v>13940.5859554433</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>445.978908464977</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -747,25 +840,31 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>185.233883079452</v>
+        <v>393.753794310461</v>
       </c>
       <c r="C15" t="n">
-        <v>-10675.0194832954</v>
+        <v>-9348.33801907916</v>
       </c>
       <c r="D15" t="n">
-        <v>-16041.8099207084</v>
+        <v>-14573.9992095977</v>
       </c>
       <c r="E15" t="n">
-        <v>11759.4009650087</v>
+        <v>10462.8602811775</v>
       </c>
       <c r="F15" t="n">
-        <v>17826.5417894894</v>
+        <v>16134.8415678754</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>391.753794310461</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -773,25 +872,31 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>314.53916121189</v>
+        <v>679.383813819126</v>
       </c>
       <c r="C16" t="n">
-        <v>-11779.2555889243</v>
+        <v>-9993.36081548146</v>
       </c>
       <c r="D16" t="n">
-        <v>-17118.951663437</v>
+        <v>-15778.0726785605</v>
       </c>
       <c r="E16" t="n">
-        <v>12888.5063588559</v>
+        <v>10959.6292754931</v>
       </c>
       <c r="F16" t="n">
-        <v>19627.097072315</v>
+        <v>18894.3930891829</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>679.383813819126</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -799,25 +904,31 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>134.101771753493</v>
+        <v>925.908395183807</v>
       </c>
       <c r="C17" t="n">
-        <v>-11394.3403031454</v>
+        <v>-10921.351267329</v>
       </c>
       <c r="D17" t="n">
-        <v>-19012.8127886767</v>
+        <v>-16532.0830328913</v>
       </c>
       <c r="E17" t="n">
-        <v>12101.6599005949</v>
+        <v>12033.7854100576</v>
       </c>
       <c r="F17" t="n">
-        <v>19318.0743184893</v>
+        <v>16911.9738881487</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>921.908395183807</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -825,25 +936,31 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>137.702399932819</v>
+        <v>884.66187319565</v>
       </c>
       <c r="C18" t="n">
-        <v>-11890.1686079573</v>
+        <v>-11019.5137644409</v>
       </c>
       <c r="D18" t="n">
-        <v>-18869.8822641095</v>
+        <v>-16683.9195165412</v>
       </c>
       <c r="E18" t="n">
-        <v>13010.0660087284</v>
+        <v>11746.2119051833</v>
       </c>
       <c r="F18" t="n">
-        <v>18005.5373969287</v>
+        <v>17844.6240020149</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>879.66187319565</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -851,25 +968,31 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>146.820259319876</v>
+        <v>1072.33519040795</v>
       </c>
       <c r="C19" t="n">
-        <v>-12429.7568531926</v>
+        <v>-10786.5642156257</v>
       </c>
       <c r="D19" t="n">
-        <v>-19411.9134112576</v>
+        <v>-17195.5252572826</v>
       </c>
       <c r="E19" t="n">
-        <v>12344.693231454</v>
+        <v>13112.0166250684</v>
       </c>
       <c r="F19" t="n">
-        <v>19388.4138085771</v>
+        <v>17864.259836413</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1064.33519040795</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -877,25 +1000,31 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>258.795838668062</v>
+        <v>921.559493636942</v>
       </c>
       <c r="C20" t="n">
-        <v>-12691.8493510943</v>
+        <v>-11508.4045891216</v>
       </c>
       <c r="D20" t="n">
-        <v>-18383.6129454334</v>
+        <v>-16344.296478888</v>
       </c>
       <c r="E20" t="n">
-        <v>13358.3515942019</v>
+        <v>12981.6554131958</v>
       </c>
       <c r="F20" t="n">
-        <v>20972.5773981719</v>
+        <v>18840.0903427408</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>918.559493636942</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -903,25 +1032,31 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>543.038949564866</v>
+        <v>1661.42441545168</v>
       </c>
       <c r="C21" t="n">
-        <v>-12624.264488791</v>
+        <v>-10008.0398591448</v>
       </c>
       <c r="D21" t="n">
-        <v>-18174.9916447879</v>
+        <v>-16253.1862109602</v>
       </c>
       <c r="E21" t="n">
-        <v>13199.8722580844</v>
+        <v>13699.6543779968</v>
       </c>
       <c r="F21" t="n">
-        <v>21889.7354319432</v>
+        <v>18982.3793065235</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1658.42441545168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -929,25 +1064,31 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2693.63877180234</v>
+        <v>3789.66881149741</v>
       </c>
       <c r="C22" t="n">
-        <v>-10867.7093802864</v>
+        <v>-8402.6086874197</v>
       </c>
       <c r="D22" t="n">
-        <v>-15805.4860988114</v>
+        <v>-14273.918792528</v>
       </c>
       <c r="E22" t="n">
-        <v>16346.7414577179</v>
+        <v>15800.0155171395</v>
       </c>
       <c r="F22" t="n">
-        <v>25043.8045734414</v>
+        <v>23118.5862105633</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3785.66881149741</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -955,25 +1096,31 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2818.49090183259</v>
+        <v>4055.89210110222</v>
       </c>
       <c r="C23" t="n">
-        <v>-10979.5821177567</v>
+        <v>-8464.62148753916</v>
       </c>
       <c r="D23" t="n">
-        <v>-17684.2219546249</v>
+        <v>-14587.5715330953</v>
       </c>
       <c r="E23" t="n">
-        <v>18295.6200430058</v>
+        <v>16327.5224732371</v>
       </c>
       <c r="F23" t="n">
-        <v>25355.5511467773</v>
+        <v>24629.7155258403</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4049.89210110222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -981,25 +1128,31 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>583.007018741279</v>
+        <v>1588.00577821121</v>
       </c>
       <c r="C24" t="n">
-        <v>-13885.5987810282</v>
+        <v>-11979.2232229093</v>
       </c>
       <c r="D24" t="n">
-        <v>-19105.7963136955</v>
+        <v>-17293.6685569251</v>
       </c>
       <c r="E24" t="n">
-        <v>16340.8143785608</v>
+        <v>14217.637257512</v>
       </c>
       <c r="F24" t="n">
-        <v>22607.5713338814</v>
+        <v>21520.5216242682</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1583.00577821121</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1007,25 +1160,31 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>89.8927991581314</v>
+        <v>1290.14842648889</v>
       </c>
       <c r="C25" t="n">
-        <v>-15464.9462637497</v>
+        <v>-11948.0477591077</v>
       </c>
       <c r="D25" t="n">
-        <v>-21173.6763806805</v>
+        <v>-18325.1831857242</v>
       </c>
       <c r="E25" t="n">
-        <v>16293.2999803561</v>
+        <v>14220.9247300219</v>
       </c>
       <c r="F25" t="n">
-        <v>22267.4930037716</v>
+        <v>21811.2098249741</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1287.14842648889</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1033,25 +1192,31 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>144.897454048093</v>
+        <v>1542.83899233033</v>
       </c>
       <c r="C26" t="n">
-        <v>-15940.1297269484</v>
+        <v>-12183.8259940707</v>
       </c>
       <c r="D26" t="n">
-        <v>-22304.5784707695</v>
+        <v>-18360.0275096089</v>
       </c>
       <c r="E26" t="n">
-        <v>15444.2754786616</v>
+        <v>14920.1782325675</v>
       </c>
       <c r="F26" t="n">
-        <v>22549.5003834429</v>
+        <v>21944.1591326177</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1542.83899233033</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1059,25 +1224,31 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>349.942918487214</v>
+        <v>1663.45563213789</v>
       </c>
       <c r="C27" t="n">
-        <v>-14706.9289054608</v>
+        <v>-12392.7483786366</v>
       </c>
       <c r="D27" t="n">
-        <v>-22396.3241851238</v>
+        <v>-17558.4273665771</v>
       </c>
       <c r="E27" t="n">
-        <v>15564.5126471708</v>
+        <v>16366.7288792828</v>
       </c>
       <c r="F27" t="n">
-        <v>23854.1178874361</v>
+        <v>22548.3468350121</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1663.45563213789</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1085,25 +1256,31 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>435.540643455779</v>
+        <v>1569.1060119139</v>
       </c>
       <c r="C28" t="n">
-        <v>-15536.5517612182</v>
+        <v>-13924.3827910606</v>
       </c>
       <c r="D28" t="n">
-        <v>-23234.767980364</v>
+        <v>-17531.2804563351</v>
       </c>
       <c r="E28" t="n">
-        <v>16156.392336933</v>
+        <v>15862.9350612807</v>
       </c>
       <c r="F28" t="n">
-        <v>24300.8831615787</v>
+        <v>23538.3302613666</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1567.1060119139</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1111,25 +1288,31 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>474.295828879017</v>
+        <v>1826.83899140495</v>
       </c>
       <c r="C29" t="n">
-        <v>-15894.6385189488</v>
+        <v>-12887.826195639</v>
       </c>
       <c r="D29" t="n">
-        <v>-24030.8795095789</v>
+        <v>-19715.0453837033</v>
       </c>
       <c r="E29" t="n">
-        <v>17905.8253414788</v>
+        <v>16465.7773948718</v>
       </c>
       <c r="F29" t="n">
-        <v>24646.7228438805</v>
+        <v>22472.9266090727</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1826.83899140495</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1137,25 +1320,31 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>406.11889338786</v>
+        <v>1850.13327489385</v>
       </c>
       <c r="C30" t="n">
-        <v>-17468.1280701599</v>
+        <v>-12883.9821068729</v>
       </c>
       <c r="D30" t="n">
-        <v>-24109.0605623462</v>
+        <v>-21170.6635296528</v>
       </c>
       <c r="E30" t="n">
-        <v>18102.9653119066</v>
+        <v>17216.3508741748</v>
       </c>
       <c r="F30" t="n">
-        <v>26847.0223335516</v>
+        <v>22755.8311744084</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1848.13327489385</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1163,25 +1352,31 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>456.600788387184</v>
+        <v>1957.79697734749</v>
       </c>
       <c r="C31" t="n">
-        <v>-18001.4101542878</v>
+        <v>-13735.2401040322</v>
       </c>
       <c r="D31" t="n">
-        <v>-25343.0532577215</v>
+        <v>-19145.8515208165</v>
       </c>
       <c r="E31" t="n">
-        <v>18433.6297022901</v>
+        <v>15793.2359390065</v>
       </c>
       <c r="F31" t="n">
-        <v>27911.459484</v>
+        <v>23202.0639113307</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1956.79697734749</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1189,25 +1384,31 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>367.790941947278</v>
+        <v>1993.42883341428</v>
       </c>
       <c r="C32" t="n">
-        <v>-16340.9193204161</v>
+        <v>-14223.7408270208</v>
       </c>
       <c r="D32" t="n">
-        <v>-25867.8473643772</v>
+        <v>-19780.2167449286</v>
       </c>
       <c r="E32" t="n">
-        <v>19196.7198500773</v>
+        <v>17215.6353591038</v>
       </c>
       <c r="F32" t="n">
-        <v>24147.5848660412</v>
+        <v>23641.8331318792</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1990.42883341428</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1215,25 +1416,31 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>829.275712932687</v>
+        <v>2391.73979885791</v>
       </c>
       <c r="C33" t="n">
-        <v>-15938.7985508031</v>
+        <v>-13733.4580309501</v>
       </c>
       <c r="D33" t="n">
-        <v>-25929.2358928373</v>
+        <v>-20974.6701380914</v>
       </c>
       <c r="E33" t="n">
-        <v>18991.8556732248</v>
+        <v>18691.9382798754</v>
       </c>
       <c r="F33" t="n">
-        <v>25762.8133616489</v>
+        <v>25283.894713524</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2390.73979885791</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1241,25 +1448,31 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2901.19617101395</v>
+        <v>4278.10849225662</v>
       </c>
       <c r="C34" t="n">
-        <v>-14381.3719453246</v>
+        <v>-12598.4287026945</v>
       </c>
       <c r="D34" t="n">
-        <v>-23912.716137252</v>
+        <v>-18514.6096165695</v>
       </c>
       <c r="E34" t="n">
-        <v>21478.5102461233</v>
+        <v>20690.4122380964</v>
       </c>
       <c r="F34" t="n">
-        <v>29684.5817934217</v>
+        <v>27199.3858847017</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>28</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4250.10849225662</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1267,25 +1480,31 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3147.75605995077</v>
+        <v>4681.7528088857</v>
       </c>
       <c r="C35" t="n">
-        <v>-15922.9270312347</v>
+        <v>-12010.477862321</v>
       </c>
       <c r="D35" t="n">
-        <v>-23140.9126290753</v>
+        <v>-19158.7181287324</v>
       </c>
       <c r="E35" t="n">
-        <v>21446.6785854557</v>
+        <v>22820.3085524915</v>
       </c>
       <c r="F35" t="n">
-        <v>30696.8304037749</v>
+        <v>29527.684226091</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>326</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4355.7528088857</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1293,25 +1512,31 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>632.222307131468</v>
+        <v>2033.78293528697</v>
       </c>
       <c r="C36" t="n">
-        <v>-18825.7388796316</v>
+        <v>-15981.4055100726</v>
       </c>
       <c r="D36" t="n">
-        <v>-26942.0000359813</v>
+        <v>-22402.2611564226</v>
       </c>
       <c r="E36" t="n">
-        <v>19717.4681495405</v>
+        <v>19903.3069567922</v>
       </c>
       <c r="F36" t="n">
-        <v>28306.9135698467</v>
+        <v>27090.5084819999</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>174</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1859.78293528697</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/data/PHSMs/Dengue fever.xlsx
+++ b/outcome/appendix/data/PHSMs/Dengue fever.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">登革热</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
@@ -424,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>583.269232182757</v>
+        <v>31.6589556342316</v>
       </c>
       <c r="C2" t="n">
-        <v>-2099.21751673993</v>
+        <v>-2783.88311186648</v>
       </c>
       <c r="D2" t="n">
-        <v>-4215.88333457504</v>
+        <v>-3959.27689660639</v>
       </c>
       <c r="E2" t="n">
-        <v>3724.31652654681</v>
+        <v>2952.90039802296</v>
       </c>
       <c r="F2" t="n">
-        <v>4956.41332042878</v>
+        <v>3426.70344852928</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +448,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>512.269232182757</v>
+        <v>-39.3410443657684</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>927.228868366581</v>
+        <v>618.395139436399</v>
       </c>
       <c r="C3" t="n">
-        <v>-3153.04018429487</v>
+        <v>-3209.06579111643</v>
       </c>
       <c r="D3" t="n">
-        <v>-5786.02009523547</v>
+        <v>-3866.0226492862</v>
       </c>
       <c r="E3" t="n">
-        <v>5110.00207521072</v>
+        <v>3804.80053757851</v>
       </c>
       <c r="F3" t="n">
-        <v>7989.24101037708</v>
+        <v>4893.59179901033</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,10 +480,10 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>910.228868366581</v>
+        <v>601.395139436399</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -488,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>1050.97111514446</v>
+        <v>1026.03499817203</v>
       </c>
       <c r="C4" t="n">
-        <v>-4209.45840150159</v>
+        <v>-3760.44419190957</v>
       </c>
       <c r="D4" t="n">
-        <v>-7112.9907475051</v>
+        <v>-5188.83864730121</v>
       </c>
       <c r="E4" t="n">
-        <v>6715.83389398167</v>
+        <v>5227.54757526502</v>
       </c>
       <c r="F4" t="n">
-        <v>9828.08141618121</v>
+        <v>6266.1511977318</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,10 +512,10 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>1034.97111514446</v>
+        <v>1010.03499817203</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -520,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>1018.26618502985</v>
+        <v>997.395682794466</v>
       </c>
       <c r="C5" t="n">
-        <v>-4935.45562634775</v>
+        <v>-2832.82704279143</v>
       </c>
       <c r="D5" t="n">
-        <v>-8084.6717682033</v>
+        <v>-4445.42710809344</v>
       </c>
       <c r="E5" t="n">
-        <v>7385.84548359972</v>
+        <v>5618.83257794515</v>
       </c>
       <c r="F5" t="n">
-        <v>10569.3238783512</v>
+        <v>7972.46591021615</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,10 +544,10 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>1012.26618502985</v>
+        <v>991.395682794466</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -552,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>1021.57615728591</v>
+        <v>624.999683726164</v>
       </c>
       <c r="C6" t="n">
-        <v>-5380.44912451408</v>
+        <v>-3693.21390993271</v>
       </c>
       <c r="D6" t="n">
-        <v>-8975.92749661508</v>
+        <v>-4355.38712085155</v>
       </c>
       <c r="E6" t="n">
-        <v>7319.41554813831</v>
+        <v>6811.28092556341</v>
       </c>
       <c r="F6" t="n">
-        <v>10383.1679438645</v>
+        <v>8592.86540303707</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,10 +576,10 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>1017.57615728591</v>
+        <v>620.999683726164</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -584,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>951.34675683549</v>
+        <v>264.245087706167</v>
       </c>
       <c r="C7" t="n">
-        <v>-5753.83720762505</v>
+        <v>-5699.35715259105</v>
       </c>
       <c r="D7" t="n">
-        <v>-9367.34129307188</v>
+        <v>-7517.11056403843</v>
       </c>
       <c r="E7" t="n">
-        <v>7529.62656937278</v>
+        <v>7020.95730234454</v>
       </c>
       <c r="F7" t="n">
-        <v>11260.8562026312</v>
+        <v>8131.31646389606</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,10 +608,10 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>947.34675683549</v>
+        <v>260.245087706167</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -616,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>848.670408531436</v>
+        <v>-730.013189111959</v>
       </c>
       <c r="C8" t="n">
-        <v>-6675.39082952321</v>
+        <v>-6990.09508186142</v>
       </c>
       <c r="D8" t="n">
-        <v>-10164.3387695502</v>
+        <v>-8521.39480166341</v>
       </c>
       <c r="E8" t="n">
-        <v>7746.62982859722</v>
+        <v>6688.96425301365</v>
       </c>
       <c r="F8" t="n">
-        <v>10905.2431614192</v>
+        <v>10354.522592151</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +640,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>793.670408531436</v>
+        <v>-785.013189111959</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1508.20737454056</v>
+        <v>115.560235161987</v>
       </c>
       <c r="C9" t="n">
-        <v>-5681.69090501813</v>
+        <v>-6221.94023186504</v>
       </c>
       <c r="D9" t="n">
-        <v>-11189.1992261596</v>
+        <v>-7322.85066063234</v>
       </c>
       <c r="E9" t="n">
-        <v>9380.96498267031</v>
+        <v>7601.59365425396</v>
       </c>
       <c r="F9" t="n">
-        <v>13403.271024244</v>
+        <v>9879.14883289618</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,10 +672,10 @@
         <v>23</v>
       </c>
       <c r="I9" t="n">
-        <v>1485.20737454056</v>
+        <v>92.5602351619867</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -680,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3386.31800563194</v>
+        <v>1954.14737543309</v>
       </c>
       <c r="C10" t="n">
-        <v>-4657.04017948331</v>
+        <v>-4539.13565416971</v>
       </c>
       <c r="D10" t="n">
-        <v>-8672.60599727292</v>
+        <v>-5536.71724920762</v>
       </c>
       <c r="E10" t="n">
-        <v>11246.7156036003</v>
+        <v>8211.98215690255</v>
       </c>
       <c r="F10" t="n">
-        <v>15211.3101263799</v>
+        <v>14037.4003474603</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,10 +704,10 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>3139.31800563194</v>
+        <v>1707.14737543309</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -712,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>3485.30503506909</v>
+        <v>2416.17976758035</v>
       </c>
       <c r="C11" t="n">
-        <v>-4647.56288025178</v>
+        <v>-5000.55621310811</v>
       </c>
       <c r="D11" t="n">
-        <v>-8444.18869003268</v>
+        <v>-9046.75147378427</v>
       </c>
       <c r="E11" t="n">
-        <v>12356.2860155526</v>
+        <v>9494.51757264182</v>
       </c>
       <c r="F11" t="n">
-        <v>15329.7259545535</v>
+        <v>14679.211970579</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,10 +736,10 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>3198.30503506909</v>
+        <v>2129.17976758035</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -744,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>902.091031500848</v>
+        <v>-388.964673678308</v>
       </c>
       <c r="C12" t="n">
-        <v>-7160.45025356945</v>
+        <v>-7620.76267702445</v>
       </c>
       <c r="D12" t="n">
-        <v>-12978.8649676303</v>
+        <v>-13274.536078621</v>
       </c>
       <c r="E12" t="n">
-        <v>9744.29549746244</v>
+        <v>6575.6699762313</v>
       </c>
       <c r="F12" t="n">
-        <v>14012.7196356717</v>
+        <v>9803.96924797977</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>839.091031500848</v>
+        <v>-451.964673678308</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>427.004062218944</v>
+        <v>175.131922987848</v>
       </c>
       <c r="C13" t="n">
-        <v>-8770.15275742229</v>
+        <v>-6987.05100461586</v>
       </c>
       <c r="D13" t="n">
-        <v>-13352.7177977981</v>
+        <v>-13726.0500401446</v>
       </c>
       <c r="E13" t="n">
-        <v>10056.5242311196</v>
+        <v>10346.1829181591</v>
       </c>
       <c r="F13" t="n">
-        <v>13689.3854114646</v>
+        <v>12277.0627827012</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,10 +800,10 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>418.004062218944</v>
+        <v>166.131922987848</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -808,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>450.978908464977</v>
+        <v>-5.61306725351917</v>
       </c>
       <c r="C14" t="n">
-        <v>-8435.574787013</v>
+        <v>-9796.88545054904</v>
       </c>
       <c r="D14" t="n">
-        <v>-14533.4895406246</v>
+        <v>-14013.5017191099</v>
       </c>
       <c r="E14" t="n">
-        <v>9955.90275475545</v>
+        <v>8760.58281676578</v>
       </c>
       <c r="F14" t="n">
-        <v>13940.5859554433</v>
+        <v>13533.9441565669</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>445.978908464977</v>
+        <v>-10.6130672535192</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>393.753794310461</v>
+        <v>649.739543091852</v>
       </c>
       <c r="C15" t="n">
-        <v>-9348.33801907916</v>
+        <v>-9173.50767588729</v>
       </c>
       <c r="D15" t="n">
-        <v>-14573.9992095977</v>
+        <v>-13880.7992320468</v>
       </c>
       <c r="E15" t="n">
-        <v>10462.8602811775</v>
+        <v>10901.5168346065</v>
       </c>
       <c r="F15" t="n">
-        <v>16134.8415678754</v>
+        <v>16009.0056353004</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,10 +864,10 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>391.753794310461</v>
+        <v>647.739543091852</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>679.383813819126</v>
+        <v>762.767802666828</v>
       </c>
       <c r="C16" t="n">
-        <v>-9993.36081548146</v>
+        <v>-10899.7141393217</v>
       </c>
       <c r="D16" t="n">
-        <v>-15778.0726785605</v>
+        <v>-16217.3729399996</v>
       </c>
       <c r="E16" t="n">
-        <v>10959.6292754931</v>
+        <v>12102.6802367237</v>
       </c>
       <c r="F16" t="n">
-        <v>18894.3930891829</v>
+        <v>17996.7646724854</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>679.383813819126</v>
+        <v>762.767802666828</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -904,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>925.908395183807</v>
+        <v>1075.21777919302</v>
       </c>
       <c r="C17" t="n">
-        <v>-10921.351267329</v>
+        <v>-12161.8639447265</v>
       </c>
       <c r="D17" t="n">
-        <v>-16532.0830328913</v>
+        <v>-15922.5180944279</v>
       </c>
       <c r="E17" t="n">
-        <v>12033.7854100576</v>
+        <v>16222.4059804834</v>
       </c>
       <c r="F17" t="n">
-        <v>16911.9738881487</v>
+        <v>18147.8039441481</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,10 +928,10 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>921.908395183807</v>
+        <v>1071.21777919302</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -936,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>884.66187319565</v>
+        <v>276.289631886409</v>
       </c>
       <c r="C18" t="n">
-        <v>-11019.5137644409</v>
+        <v>-12882.9292242168</v>
       </c>
       <c r="D18" t="n">
-        <v>-16683.9195165412</v>
+        <v>-15553.9260672712</v>
       </c>
       <c r="E18" t="n">
-        <v>11746.2119051833</v>
+        <v>12880.7023911771</v>
       </c>
       <c r="F18" t="n">
-        <v>17844.6240020149</v>
+        <v>17843.9504995419</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,10 +960,10 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>879.66187319565</v>
+        <v>271.289631886409</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -968,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>1072.33519040795</v>
+        <v>501.420492426725</v>
       </c>
       <c r="C19" t="n">
-        <v>-10786.5642156257</v>
+        <v>-15948.1437115415</v>
       </c>
       <c r="D19" t="n">
-        <v>-17195.5252572826</v>
+        <v>-17611.8839967816</v>
       </c>
       <c r="E19" t="n">
-        <v>13112.0166250684</v>
+        <v>15319.0642469992</v>
       </c>
       <c r="F19" t="n">
-        <v>17864.259836413</v>
+        <v>16624.5470310383</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,10 +992,10 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>1064.33519040795</v>
+        <v>493.420492426725</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1000,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>921.559493636942</v>
+        <v>-517.53900413681</v>
       </c>
       <c r="C20" t="n">
-        <v>-11508.4045891216</v>
+        <v>-16038.0477539391</v>
       </c>
       <c r="D20" t="n">
-        <v>-16344.296478888</v>
+        <v>-18646.8086321359</v>
       </c>
       <c r="E20" t="n">
-        <v>12981.6554131958</v>
+        <v>14338.489192019</v>
       </c>
       <c r="F20" t="n">
-        <v>18840.0903427408</v>
+        <v>18756.7377140648</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>918.559493636942</v>
+        <v>-520.53900413681</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1661.42441545168</v>
+        <v>705.972287931013</v>
       </c>
       <c r="C21" t="n">
-        <v>-10008.0398591448</v>
+        <v>-15470.9499792875</v>
       </c>
       <c r="D21" t="n">
-        <v>-16253.1862109602</v>
+        <v>-17877.2585159051</v>
       </c>
       <c r="E21" t="n">
-        <v>13699.6543779968</v>
+        <v>17346.9198150377</v>
       </c>
       <c r="F21" t="n">
-        <v>18982.3793065235</v>
+        <v>23096.4432012347</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,10 +1056,10 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>1658.42441545168</v>
+        <v>702.972287931013</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1064,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3789.66881149741</v>
+        <v>1758.00162739522</v>
       </c>
       <c r="C22" t="n">
-        <v>-8402.6086874197</v>
+        <v>-12079.8020236813</v>
       </c>
       <c r="D22" t="n">
-        <v>-14273.918792528</v>
+        <v>-17685.4990240398</v>
       </c>
       <c r="E22" t="n">
-        <v>15800.0155171395</v>
+        <v>20021.0014606812</v>
       </c>
       <c r="F22" t="n">
-        <v>23118.5862105633</v>
+        <v>26117.8154314963</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,10 +1088,10 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3785.66881149741</v>
+        <v>1754.00162739522</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1096,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4055.89210110222</v>
+        <v>2628.55610252752</v>
       </c>
       <c r="C23" t="n">
-        <v>-8464.62148753916</v>
+        <v>-11958.3131234902</v>
       </c>
       <c r="D23" t="n">
-        <v>-14587.5715330953</v>
+        <v>-17303.5378810047</v>
       </c>
       <c r="E23" t="n">
-        <v>16327.5224732371</v>
+        <v>24137.5667698327</v>
       </c>
       <c r="F23" t="n">
-        <v>24629.7155258403</v>
+        <v>29058.5600983573</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,10 +1120,10 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>4049.89210110222</v>
+        <v>2622.55610252752</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1128,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1588.00577821121</v>
+        <v>-532.159502775415</v>
       </c>
       <c r="C24" t="n">
-        <v>-11979.2232229093</v>
+        <v>-14187.2540724164</v>
       </c>
       <c r="D24" t="n">
-        <v>-17293.6685569251</v>
+        <v>-18075.8493190447</v>
       </c>
       <c r="E24" t="n">
-        <v>14217.637257512</v>
+        <v>19942.5050271854</v>
       </c>
       <c r="F24" t="n">
-        <v>21520.5216242682</v>
+        <v>25467.5100908758</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>1583.00577821121</v>
+        <v>-537.159502775415</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1290.14842648889</v>
+        <v>-912.080110655245</v>
       </c>
       <c r="C25" t="n">
-        <v>-11948.0477591077</v>
+        <v>-14461.3670257544</v>
       </c>
       <c r="D25" t="n">
-        <v>-18325.1831857242</v>
+        <v>-18701.4420593507</v>
       </c>
       <c r="E25" t="n">
-        <v>14220.9247300219</v>
+        <v>13368.5883582379</v>
       </c>
       <c r="F25" t="n">
-        <v>21811.2098249741</v>
+        <v>23683.1171075506</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>1287.14842648889</v>
+        <v>-915.080110655245</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1542.83899233033</v>
+        <v>-1398.70134970052</v>
       </c>
       <c r="C26" t="n">
-        <v>-12183.8259940707</v>
+        <v>-15299.4761706019</v>
       </c>
       <c r="D26" t="n">
-        <v>-18360.0275096089</v>
+        <v>-20527.0804823604</v>
       </c>
       <c r="E26" t="n">
-        <v>14920.1782325675</v>
+        <v>11579.2356216887</v>
       </c>
       <c r="F26" t="n">
-        <v>21944.1591326177</v>
+        <v>26699.3790115332</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1542.83899233033</v>
+        <v>-1398.70134970052</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1663.45563213789</v>
+        <v>-723.833606857988</v>
       </c>
       <c r="C27" t="n">
-        <v>-12392.7483786366</v>
+        <v>-15137.608711004</v>
       </c>
       <c r="D27" t="n">
-        <v>-17558.4273665771</v>
+        <v>-16383.8098809624</v>
       </c>
       <c r="E27" t="n">
-        <v>16366.7288792828</v>
+        <v>14594.0341689939</v>
       </c>
       <c r="F27" t="n">
-        <v>22548.3468350121</v>
+        <v>27070.0824187573</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1663.45563213789</v>
+        <v>-723.833606857988</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>1569.1060119139</v>
+        <v>-1124.91377202305</v>
       </c>
       <c r="C28" t="n">
-        <v>-13924.3827910606</v>
+        <v>-16231.0459133894</v>
       </c>
       <c r="D28" t="n">
-        <v>-17531.2804563351</v>
+        <v>-19271.5491909464</v>
       </c>
       <c r="E28" t="n">
-        <v>15862.9350612807</v>
+        <v>16193.1652876052</v>
       </c>
       <c r="F28" t="n">
-        <v>23538.3302613666</v>
+        <v>26825.7173419068</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>1567.1060119139</v>
+        <v>-1126.91377202305</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>1826.83899140495</v>
+        <v>-582.943860366517</v>
       </c>
       <c r="C29" t="n">
-        <v>-12887.826195639</v>
+        <v>-14583.9640828769</v>
       </c>
       <c r="D29" t="n">
-        <v>-19715.0453837033</v>
+        <v>-18392.4185785383</v>
       </c>
       <c r="E29" t="n">
-        <v>16465.7773948718</v>
+        <v>17065.3165807889</v>
       </c>
       <c r="F29" t="n">
-        <v>22472.9266090727</v>
+        <v>31355.0150412771</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1826.83899140495</v>
+        <v>-582.943860366517</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>1850.13327489385</v>
+        <v>-1205.10148525188</v>
       </c>
       <c r="C30" t="n">
-        <v>-12883.9821068729</v>
+        <v>-15223.8893450947</v>
       </c>
       <c r="D30" t="n">
-        <v>-21170.6635296528</v>
+        <v>-19779.7885429607</v>
       </c>
       <c r="E30" t="n">
-        <v>17216.3508741748</v>
+        <v>16801.6624594231</v>
       </c>
       <c r="F30" t="n">
-        <v>22755.8311744084</v>
+        <v>31758.2599072545</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>1848.13327489385</v>
+        <v>-1207.10148525188</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>1957.79697734749</v>
+        <v>-1298.21362599291</v>
       </c>
       <c r="C31" t="n">
-        <v>-13735.2401040322</v>
+        <v>-16434.6658994201</v>
       </c>
       <c r="D31" t="n">
-        <v>-19145.8515208165</v>
+        <v>-20549.0173339187</v>
       </c>
       <c r="E31" t="n">
-        <v>15793.2359390065</v>
+        <v>21536.8925849012</v>
       </c>
       <c r="F31" t="n">
-        <v>23202.0639113307</v>
+        <v>29642.7394447185</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1956.79697734749</v>
+        <v>-1299.21362599291</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>1993.42883341428</v>
+        <v>-962.265676261722</v>
       </c>
       <c r="C32" t="n">
-        <v>-14223.7408270208</v>
+        <v>-15817.1193662665</v>
       </c>
       <c r="D32" t="n">
-        <v>-19780.2167449286</v>
+        <v>-16891.1300936529</v>
       </c>
       <c r="E32" t="n">
-        <v>17215.6353591038</v>
+        <v>19200.0246316661</v>
       </c>
       <c r="F32" t="n">
-        <v>23641.8331318792</v>
+        <v>29710.1999496202</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>1990.42883341428</v>
+        <v>-965.265676261722</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2391.73979885791</v>
+        <v>-174.044544160605</v>
       </c>
       <c r="C33" t="n">
-        <v>-13733.4580309501</v>
+        <v>-15635.3269477171</v>
       </c>
       <c r="D33" t="n">
-        <v>-20974.6701380914</v>
+        <v>-17601.1739651521</v>
       </c>
       <c r="E33" t="n">
-        <v>18691.9382798754</v>
+        <v>18391.4044522824</v>
       </c>
       <c r="F33" t="n">
-        <v>25283.894713524</v>
+        <v>31359.5881104675</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>2390.73979885791</v>
+        <v>-175.044544160605</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4278.10849225662</v>
+        <v>1675.96599103653</v>
       </c>
       <c r="C34" t="n">
-        <v>-12598.4287026945</v>
+        <v>-14726.7851069085</v>
       </c>
       <c r="D34" t="n">
-        <v>-18514.6096165695</v>
+        <v>-15615.1071434335</v>
       </c>
       <c r="E34" t="n">
-        <v>20690.4122380964</v>
+        <v>21289.7211905947</v>
       </c>
       <c r="F34" t="n">
-        <v>27199.3858847017</v>
+        <v>34925.815270897</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,10 +1472,10 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>4250.10849225662</v>
+        <v>1647.96599103653</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1480,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4681.7528088857</v>
+        <v>1762.88365614059</v>
       </c>
       <c r="C35" t="n">
-        <v>-12010.477862321</v>
+        <v>-14658.6848729919</v>
       </c>
       <c r="D35" t="n">
-        <v>-19158.7181287324</v>
+        <v>-16652.0570367312</v>
       </c>
       <c r="E35" t="n">
-        <v>22820.3085524915</v>
+        <v>20512.6861363693</v>
       </c>
       <c r="F35" t="n">
-        <v>29527.684226091</v>
+        <v>35771.4608251589</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,10 +1504,10 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>4355.7528088857</v>
+        <v>1436.88365614059</v>
       </c>
       <c r="J35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1512,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2033.78293528697</v>
+        <v>-1208.01066258115</v>
       </c>
       <c r="C36" t="n">
-        <v>-15981.4055100726</v>
+        <v>-16936.6047339735</v>
       </c>
       <c r="D36" t="n">
-        <v>-22402.2611564226</v>
+        <v>-20531.1062841581</v>
       </c>
       <c r="E36" t="n">
-        <v>19903.3069567922</v>
+        <v>17350.1271056968</v>
       </c>
       <c r="F36" t="n">
-        <v>27090.5084819999</v>
+        <v>33175.9993237182</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1536,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>1859.78293528697</v>
+        <v>-1382.01066258115</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/Dengue fever.xlsx
+++ b/outcome/appendix/data/PHSMs/Dengue fever.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t xml:space="preserve">登革热</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
@@ -427,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>31.6589556342316</v>
+        <v>510.372311512601</v>
       </c>
       <c r="C2" t="n">
-        <v>-2783.88311186648</v>
+        <v>-2806.90387189513</v>
       </c>
       <c r="D2" t="n">
-        <v>-3959.27689660639</v>
+        <v>-4872.29052834386</v>
       </c>
       <c r="E2" t="n">
-        <v>2952.90039802296</v>
+        <v>3774.60204816891</v>
       </c>
       <c r="F2" t="n">
-        <v>3426.70344852928</v>
+        <v>5225.81088939566</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +445,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>-39.3410443657684</v>
+        <v>439.372311512601</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>618.395139436399</v>
+        <v>322.468843313751</v>
       </c>
       <c r="C3" t="n">
-        <v>-3209.06579111643</v>
+        <v>-4290.47748975687</v>
       </c>
       <c r="D3" t="n">
-        <v>-3866.0226492862</v>
+        <v>-6341.51972021824</v>
       </c>
       <c r="E3" t="n">
-        <v>3804.80053757851</v>
+        <v>4773.97026175195</v>
       </c>
       <c r="F3" t="n">
-        <v>4893.59179901033</v>
+        <v>6366.71305946115</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,10 +477,10 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>601.395139436399</v>
+        <v>305.468843313751</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -491,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>1026.03499817203</v>
+        <v>429.760184797484</v>
       </c>
       <c r="C4" t="n">
-        <v>-3760.44419190957</v>
+        <v>-4805.09282713432</v>
       </c>
       <c r="D4" t="n">
-        <v>-5188.83864730121</v>
+        <v>-7584.73887413026</v>
       </c>
       <c r="E4" t="n">
-        <v>5227.54757526502</v>
+        <v>5820.44146001027</v>
       </c>
       <c r="F4" t="n">
-        <v>6266.1511977318</v>
+        <v>8720.41905722779</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,10 +509,10 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>1010.03499817203</v>
+        <v>413.760184797484</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -523,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>997.395682794466</v>
+        <v>606.445854888147</v>
       </c>
       <c r="C5" t="n">
-        <v>-2832.82704279143</v>
+        <v>-6018.81610351189</v>
       </c>
       <c r="D5" t="n">
-        <v>-4445.42710809344</v>
+        <v>-8917.32941416344</v>
       </c>
       <c r="E5" t="n">
-        <v>5618.83257794515</v>
+        <v>6627.91117693238</v>
       </c>
       <c r="F5" t="n">
-        <v>7972.46591021615</v>
+        <v>8460.13600072924</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,10 +541,10 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>991.395682794466</v>
+        <v>600.445854888147</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>624.999683726164</v>
+        <v>699.250316308899</v>
       </c>
       <c r="C6" t="n">
-        <v>-3693.21390993271</v>
+        <v>-6641.55350148225</v>
       </c>
       <c r="D6" t="n">
-        <v>-4355.38712085155</v>
+        <v>-10138.2687542983</v>
       </c>
       <c r="E6" t="n">
-        <v>6811.28092556341</v>
+        <v>7573.91001647751</v>
       </c>
       <c r="F6" t="n">
-        <v>8592.86540303707</v>
+        <v>10257.3084836475</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,10 +573,10 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>620.999683726164</v>
+        <v>695.250316308899</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -587,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>264.245087706167</v>
+        <v>566.014897586359</v>
       </c>
       <c r="C7" t="n">
-        <v>-5699.35715259105</v>
+        <v>-6784.25606889991</v>
       </c>
       <c r="D7" t="n">
-        <v>-7517.11056403843</v>
+        <v>-10718.2154815676</v>
       </c>
       <c r="E7" t="n">
-        <v>7020.95730234454</v>
+        <v>7863.40110492018</v>
       </c>
       <c r="F7" t="n">
-        <v>8131.31646389606</v>
+        <v>11718.0803621266</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>260.245087706167</v>
+        <v>562.014897586359</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -619,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>-730.013189111959</v>
+        <v>528.605882302835</v>
       </c>
       <c r="C8" t="n">
-        <v>-6990.09508186142</v>
+        <v>-7141.55345516904</v>
       </c>
       <c r="D8" t="n">
-        <v>-8521.39480166341</v>
+        <v>-12179.1515771609</v>
       </c>
       <c r="E8" t="n">
-        <v>6688.96425301365</v>
+        <v>8307.1531473216</v>
       </c>
       <c r="F8" t="n">
-        <v>10354.522592151</v>
+        <v>12241.4311491273</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +637,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>-785.013189111959</v>
+        <v>473.605882302835</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>115.560235161987</v>
+        <v>826.335348644812</v>
       </c>
       <c r="C9" t="n">
-        <v>-6221.94023186504</v>
+        <v>-7758.12394227733</v>
       </c>
       <c r="D9" t="n">
-        <v>-7322.85066063234</v>
+        <v>-11560.8009879543</v>
       </c>
       <c r="E9" t="n">
-        <v>7601.59365425396</v>
+        <v>9537.00999641338</v>
       </c>
       <c r="F9" t="n">
-        <v>9879.14883289618</v>
+        <v>12503.8969242757</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,10 +669,10 @@
         <v>23</v>
       </c>
       <c r="I9" t="n">
-        <v>92.5602351619867</v>
+        <v>803.335348644812</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -683,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>1954.14737543309</v>
+        <v>2737.61577738189</v>
       </c>
       <c r="C10" t="n">
-        <v>-4539.13565416971</v>
+        <v>-5800.86656345428</v>
       </c>
       <c r="D10" t="n">
-        <v>-5536.71724920762</v>
+        <v>-10146.9100887366</v>
       </c>
       <c r="E10" t="n">
-        <v>8211.98215690255</v>
+        <v>12173.2095416727</v>
       </c>
       <c r="F10" t="n">
-        <v>14037.4003474603</v>
+        <v>16114.4588053005</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,10 +701,10 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>1707.14737543309</v>
+        <v>2490.61577738189</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -715,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2416.17976758035</v>
+        <v>2924.62023829265</v>
       </c>
       <c r="C11" t="n">
-        <v>-5000.55621310811</v>
+        <v>-6409.07199778533</v>
       </c>
       <c r="D11" t="n">
-        <v>-9046.75147378427</v>
+        <v>-11858.2949873111</v>
       </c>
       <c r="E11" t="n">
-        <v>9494.51757264182</v>
+        <v>12881.0335474125</v>
       </c>
       <c r="F11" t="n">
-        <v>14679.211970579</v>
+        <v>17141.3518794767</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,10 +733,10 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>2129.17976758035</v>
+        <v>2637.62023829265</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -747,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>-388.964673678308</v>
+        <v>803.671304539392</v>
       </c>
       <c r="C12" t="n">
-        <v>-7620.76267702445</v>
+        <v>-8622.23261006976</v>
       </c>
       <c r="D12" t="n">
-        <v>-13274.536078621</v>
+        <v>-13862.1511239935</v>
       </c>
       <c r="E12" t="n">
-        <v>6575.6699762313</v>
+        <v>11104.2397160113</v>
       </c>
       <c r="F12" t="n">
-        <v>9803.96924797977</v>
+        <v>16156.8100470345</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +765,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>-451.964673678308</v>
+        <v>740.671304539392</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>175.131922987848</v>
+        <v>526.674067134805</v>
       </c>
       <c r="C13" t="n">
-        <v>-6987.05100461586</v>
+        <v>-9799.24777543299</v>
       </c>
       <c r="D13" t="n">
-        <v>-13726.0500401446</v>
+        <v>-14508.8175622325</v>
       </c>
       <c r="E13" t="n">
-        <v>10346.1829181591</v>
+        <v>11445.2418675748</v>
       </c>
       <c r="F13" t="n">
-        <v>12277.0627827012</v>
+        <v>16207.8276613012</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,10 +797,10 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>166.131922987848</v>
+        <v>517.674067134805</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -811,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.61306725351917</v>
+        <v>708.861907917163</v>
       </c>
       <c r="C14" t="n">
-        <v>-9796.88545054904</v>
+        <v>-10301.6575775799</v>
       </c>
       <c r="D14" t="n">
-        <v>-14013.5017191099</v>
+        <v>-16355.1011789573</v>
       </c>
       <c r="E14" t="n">
-        <v>8760.58281676578</v>
+        <v>11616.4711271254</v>
       </c>
       <c r="F14" t="n">
-        <v>13533.9441565669</v>
+        <v>17966.0297598947</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>-10.6130672535192</v>
+        <v>703.861907917163</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>649.739543091852</v>
+        <v>830.515202300471</v>
       </c>
       <c r="C15" t="n">
-        <v>-9173.50767588729</v>
+        <v>-10715.7121378085</v>
       </c>
       <c r="D15" t="n">
-        <v>-13880.7992320468</v>
+        <v>-16964.6937843172</v>
       </c>
       <c r="E15" t="n">
-        <v>10901.5168346065</v>
+        <v>12040.2153063375</v>
       </c>
       <c r="F15" t="n">
-        <v>16009.0056353004</v>
+        <v>16546.0095016951</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,10 +861,10 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>647.739543091852</v>
+        <v>828.515202300471</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>762.767802666828</v>
+        <v>859.3931535822</v>
       </c>
       <c r="C16" t="n">
-        <v>-10899.7141393217</v>
+        <v>-10933.1503988743</v>
       </c>
       <c r="D16" t="n">
-        <v>-16217.3729399996</v>
+        <v>-16552.222814192</v>
       </c>
       <c r="E16" t="n">
-        <v>12102.6802367237</v>
+        <v>13468.3771467037</v>
       </c>
       <c r="F16" t="n">
-        <v>17996.7646724854</v>
+        <v>18800.9677074612</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>762.767802666828</v>
+        <v>859.3931535822</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -907,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>1075.21777919302</v>
+        <v>629.69848657499</v>
       </c>
       <c r="C17" t="n">
-        <v>-12161.8639447265</v>
+        <v>-11089.4653254629</v>
       </c>
       <c r="D17" t="n">
-        <v>-15922.5180944279</v>
+        <v>-16326.76646989</v>
       </c>
       <c r="E17" t="n">
-        <v>16222.4059804834</v>
+        <v>12792.2723678319</v>
       </c>
       <c r="F17" t="n">
-        <v>18147.8039441481</v>
+        <v>18956.0208107674</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,10 +925,10 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>1071.21777919302</v>
+        <v>625.69848657499</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -939,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>276.289631886409</v>
+        <v>582.733158935659</v>
       </c>
       <c r="C18" t="n">
-        <v>-12882.9292242168</v>
+        <v>-11406.8681747938</v>
       </c>
       <c r="D18" t="n">
-        <v>-15553.9260672712</v>
+        <v>-17679.472573148</v>
       </c>
       <c r="E18" t="n">
-        <v>12880.7023911771</v>
+        <v>13770.8609057621</v>
       </c>
       <c r="F18" t="n">
-        <v>17843.9504995419</v>
+        <v>18403.4136670379</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,10 +957,10 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>271.289631886409</v>
+        <v>577.733158935659</v>
       </c>
       <c r="J18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -971,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>501.420492426725</v>
+        <v>578.769936992637</v>
       </c>
       <c r="C19" t="n">
-        <v>-15948.1437115415</v>
+        <v>-11689.2303114223</v>
       </c>
       <c r="D19" t="n">
-        <v>-17611.8839967816</v>
+        <v>-17086.3040718233</v>
       </c>
       <c r="E19" t="n">
-        <v>15319.0642469992</v>
+        <v>13338.8292346816</v>
       </c>
       <c r="F19" t="n">
-        <v>16624.5470310383</v>
+        <v>19978.7911440287</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,10 +989,10 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>493.420492426725</v>
+        <v>570.769936992637</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1003,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>-517.53900413681</v>
+        <v>671.997618717657</v>
       </c>
       <c r="C20" t="n">
-        <v>-16038.0477539391</v>
+        <v>-12624.2122337339</v>
       </c>
       <c r="D20" t="n">
-        <v>-18646.8086321359</v>
+        <v>-17900.5371281705</v>
       </c>
       <c r="E20" t="n">
-        <v>14338.489192019</v>
+        <v>14719.0550186382</v>
       </c>
       <c r="F20" t="n">
-        <v>18756.7377140648</v>
+        <v>20170.6647130911</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>-520.53900413681</v>
+        <v>668.997618717657</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>705.972287931013</v>
+        <v>845.809477548986</v>
       </c>
       <c r="C21" t="n">
-        <v>-15470.9499792875</v>
+        <v>-12642.617501532</v>
       </c>
       <c r="D21" t="n">
-        <v>-17877.2585159051</v>
+        <v>-18570.0479249796</v>
       </c>
       <c r="E21" t="n">
-        <v>17346.9198150377</v>
+        <v>15124.457579248</v>
       </c>
       <c r="F21" t="n">
-        <v>23096.4432012347</v>
+        <v>22103.5084183342</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,10 +1053,10 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>702.972287931013</v>
+        <v>842.809477548986</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1067,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1758.00162739522</v>
+        <v>3055.94580593447</v>
       </c>
       <c r="C22" t="n">
-        <v>-12079.8020236813</v>
+        <v>-10336.6510972727</v>
       </c>
       <c r="D22" t="n">
-        <v>-17685.4990240398</v>
+        <v>-16757.1390908431</v>
       </c>
       <c r="E22" t="n">
-        <v>20021.0014606812</v>
+        <v>17849.9301420488</v>
       </c>
       <c r="F22" t="n">
-        <v>26117.8154314963</v>
+        <v>25614.9192919092</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,10 +1085,10 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>1754.00162739522</v>
+        <v>3051.94580593447</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1099,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2628.55610252752</v>
+        <v>3083.62560647595</v>
       </c>
       <c r="C23" t="n">
-        <v>-11958.3131234902</v>
+        <v>-10351.1518700018</v>
       </c>
       <c r="D23" t="n">
-        <v>-17303.5378810047</v>
+        <v>-17335.8333214088</v>
       </c>
       <c r="E23" t="n">
-        <v>24137.5667698327</v>
+        <v>18691.3474153003</v>
       </c>
       <c r="F23" t="n">
-        <v>29058.5600983573</v>
+        <v>26327.5716699831</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,10 +1117,10 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>2622.55610252752</v>
+        <v>3077.62560647595</v>
       </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1131,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>-532.159502775415</v>
+        <v>399.202263036607</v>
       </c>
       <c r="C24" t="n">
-        <v>-14187.2540724164</v>
+        <v>-14360.6049721256</v>
       </c>
       <c r="D24" t="n">
-        <v>-18075.8493190447</v>
+        <v>-20576.0257466061</v>
       </c>
       <c r="E24" t="n">
-        <v>19942.5050271854</v>
+        <v>17342.3226170987</v>
       </c>
       <c r="F24" t="n">
-        <v>25467.5100908758</v>
+        <v>24909.3226913198</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>-537.159502775415</v>
+        <v>394.202263036607</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>-912.080110655245</v>
+        <v>254.653511515524</v>
       </c>
       <c r="C25" t="n">
-        <v>-14461.3670257544</v>
+        <v>-13422.6398631257</v>
       </c>
       <c r="D25" t="n">
-        <v>-18701.4420593507</v>
+        <v>-21223.5557697564</v>
       </c>
       <c r="E25" t="n">
-        <v>13368.5883582379</v>
+        <v>16320.319664644</v>
       </c>
       <c r="F25" t="n">
-        <v>23683.1171075506</v>
+        <v>24356.1190609799</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>-915.080110655245</v>
+        <v>251.653511515524</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>-1398.70134970052</v>
+        <v>617.240314983996</v>
       </c>
       <c r="C26" t="n">
-        <v>-15299.4761706019</v>
+        <v>-14246.4350001114</v>
       </c>
       <c r="D26" t="n">
-        <v>-20527.0804823604</v>
+        <v>-21946.2918540999</v>
       </c>
       <c r="E26" t="n">
-        <v>11579.2356216887</v>
+        <v>19141.3204343081</v>
       </c>
       <c r="F26" t="n">
-        <v>26699.3790115332</v>
+        <v>25188.9849446096</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-1398.70134970052</v>
+        <v>617.240314983996</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>-723.833606857988</v>
+        <v>490.503108517731</v>
       </c>
       <c r="C27" t="n">
-        <v>-15137.608711004</v>
+        <v>-14115.8870844703</v>
       </c>
       <c r="D27" t="n">
-        <v>-16383.8098809624</v>
+        <v>-23591.1470954904</v>
       </c>
       <c r="E27" t="n">
-        <v>14594.0341689939</v>
+        <v>17267.8674949131</v>
       </c>
       <c r="F27" t="n">
-        <v>27070.0824187573</v>
+        <v>26082.0096496823</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-723.833606857988</v>
+        <v>490.503108517731</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>-1124.91377202305</v>
+        <v>480.643144018534</v>
       </c>
       <c r="C28" t="n">
-        <v>-16231.0459133894</v>
+        <v>-14703.1405700293</v>
       </c>
       <c r="D28" t="n">
-        <v>-19271.5491909464</v>
+        <v>-23486.3595305284</v>
       </c>
       <c r="E28" t="n">
-        <v>16193.1652876052</v>
+        <v>18390.8412767518</v>
       </c>
       <c r="F28" t="n">
-        <v>26825.7173419068</v>
+        <v>26325.9211287968</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>-1126.91377202305</v>
+        <v>478.643144018534</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>-582.943860366517</v>
+        <v>464.152493918417</v>
       </c>
       <c r="C29" t="n">
-        <v>-14583.9640828769</v>
+        <v>-14867.209477622</v>
       </c>
       <c r="D29" t="n">
-        <v>-18392.4185785383</v>
+        <v>-23544.7920381115</v>
       </c>
       <c r="E29" t="n">
-        <v>17065.3165807889</v>
+        <v>17516.2374614652</v>
       </c>
       <c r="F29" t="n">
-        <v>31355.0150412771</v>
+        <v>27443.3554699447</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-582.943860366517</v>
+        <v>464.152493918417</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>-1205.10148525188</v>
+        <v>610.207576220172</v>
       </c>
       <c r="C30" t="n">
-        <v>-15223.8893450947</v>
+        <v>-14465.5468732438</v>
       </c>
       <c r="D30" t="n">
-        <v>-19779.7885429607</v>
+        <v>-24499.7243198165</v>
       </c>
       <c r="E30" t="n">
-        <v>16801.6624594231</v>
+        <v>20094.9624399951</v>
       </c>
       <c r="F30" t="n">
-        <v>31758.2599072545</v>
+        <v>27994.9643051689</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>-1207.10148525188</v>
+        <v>608.207576220172</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>-1298.21362599291</v>
+        <v>635.278317875972</v>
       </c>
       <c r="C31" t="n">
-        <v>-16434.6658994201</v>
+        <v>-15871.5698414037</v>
       </c>
       <c r="D31" t="n">
-        <v>-20549.0173339187</v>
+        <v>-23021.5153010527</v>
       </c>
       <c r="E31" t="n">
-        <v>21536.8925849012</v>
+        <v>18190.1260870151</v>
       </c>
       <c r="F31" t="n">
-        <v>29642.7394447185</v>
+        <v>28673.1878372102</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-1299.21362599291</v>
+        <v>634.278317875972</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>-962.265676261722</v>
+        <v>635.587657418462</v>
       </c>
       <c r="C32" t="n">
-        <v>-15817.1193662665</v>
+        <v>-16654.9037865279</v>
       </c>
       <c r="D32" t="n">
-        <v>-16891.1300936529</v>
+        <v>-23964.8720970878</v>
       </c>
       <c r="E32" t="n">
-        <v>19200.0246316661</v>
+        <v>18568.7392203158</v>
       </c>
       <c r="F32" t="n">
-        <v>29710.1999496202</v>
+        <v>29858.231850594</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>-965.265676261722</v>
+        <v>632.587657418462</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>-174.044544160605</v>
+        <v>1007.62107058461</v>
       </c>
       <c r="C33" t="n">
-        <v>-15635.3269477171</v>
+        <v>-16392.3189650854</v>
       </c>
       <c r="D33" t="n">
-        <v>-17601.1739651521</v>
+        <v>-25425.3711079928</v>
       </c>
       <c r="E33" t="n">
-        <v>18391.4044522824</v>
+        <v>20257.492228389</v>
       </c>
       <c r="F33" t="n">
-        <v>31359.5881104675</v>
+        <v>29479.8098985266</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-175.044544160605</v>
+        <v>1006.62107058461</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>1675.96599103653</v>
+        <v>3080.40412062025</v>
       </c>
       <c r="C34" t="n">
-        <v>-14726.7851069085</v>
+        <v>-14406.2975471038</v>
       </c>
       <c r="D34" t="n">
-        <v>-15615.1071434335</v>
+        <v>-25116.0623669696</v>
       </c>
       <c r="E34" t="n">
-        <v>21289.7211905947</v>
+        <v>22674.3091346988</v>
       </c>
       <c r="F34" t="n">
-        <v>34925.815270897</v>
+        <v>33234.4583818215</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,10 +1469,10 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>1647.96599103653</v>
+        <v>3052.40412062025</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1483,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1762.88365614059</v>
+        <v>3381.24701690342</v>
       </c>
       <c r="C35" t="n">
-        <v>-14658.6848729919</v>
+        <v>-14817.597324369</v>
       </c>
       <c r="D35" t="n">
-        <v>-16652.0570367312</v>
+        <v>-25045.974928386</v>
       </c>
       <c r="E35" t="n">
-        <v>20512.6861363693</v>
+        <v>21992.2058225082</v>
       </c>
       <c r="F35" t="n">
-        <v>35771.4608251589</v>
+        <v>34389.8814474543</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,10 +1501,10 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>1436.88365614059</v>
+        <v>3055.24701690342</v>
       </c>
       <c r="J35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1515,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>-1208.01066258115</v>
+        <v>733.532464512287</v>
       </c>
       <c r="C36" t="n">
-        <v>-16936.6047339735</v>
+        <v>-17745.4016898091</v>
       </c>
       <c r="D36" t="n">
-        <v>-20531.1062841581</v>
+        <v>-29253.4487777619</v>
       </c>
       <c r="E36" t="n">
-        <v>17350.1271056968</v>
+        <v>20102.223314961</v>
       </c>
       <c r="F36" t="n">
-        <v>33175.9993237182</v>
+        <v>33989.6394807158</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1533,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>-1382.01066258115</v>
+        <v>559.532464512287</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/Dengue fever.xlsx
+++ b/outcome/appendix/data/PHSMs/Dengue fever.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>510.372311512601</v>
+        <v>583.269232182757</v>
       </c>
       <c r="C2" t="n">
-        <v>-2806.90387189513</v>
+        <v>-2099.21751673993</v>
       </c>
       <c r="D2" t="n">
-        <v>-4872.29052834386</v>
+        <v>-4215.88333457504</v>
       </c>
       <c r="E2" t="n">
-        <v>3774.60204816891</v>
+        <v>3724.31652654681</v>
       </c>
       <c r="F2" t="n">
-        <v>5225.81088939566</v>
+        <v>4956.41332042878</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>439.372311512601</v>
+        <v>512.269232182757</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>322.468843313751</v>
+        <v>927.228868366581</v>
       </c>
       <c r="C3" t="n">
-        <v>-4290.47748975687</v>
+        <v>-3153.04018429487</v>
       </c>
       <c r="D3" t="n">
-        <v>-6341.51972021824</v>
+        <v>-5786.02009523547</v>
       </c>
       <c r="E3" t="n">
-        <v>4773.97026175195</v>
+        <v>5110.00207521072</v>
       </c>
       <c r="F3" t="n">
-        <v>6366.71305946115</v>
+        <v>7989.24101037708</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>305.468843313751</v>
+        <v>910.228868366581</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>429.760184797484</v>
+        <v>1050.97111514446</v>
       </c>
       <c r="C4" t="n">
-        <v>-4805.09282713432</v>
+        <v>-4209.45840150159</v>
       </c>
       <c r="D4" t="n">
-        <v>-7584.73887413026</v>
+        <v>-7112.9907475051</v>
       </c>
       <c r="E4" t="n">
-        <v>5820.44146001027</v>
+        <v>6715.83389398167</v>
       </c>
       <c r="F4" t="n">
-        <v>8720.41905722779</v>
+        <v>9828.08141618121</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>413.760184797484</v>
+        <v>1034.97111514446</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>606.445854888147</v>
+        <v>1018.26618502985</v>
       </c>
       <c r="C5" t="n">
-        <v>-6018.81610351189</v>
+        <v>-4935.45562634775</v>
       </c>
       <c r="D5" t="n">
-        <v>-8917.32941416344</v>
+        <v>-8084.6717682033</v>
       </c>
       <c r="E5" t="n">
-        <v>6627.91117693238</v>
+        <v>7385.84548359972</v>
       </c>
       <c r="F5" t="n">
-        <v>8460.13600072924</v>
+        <v>10569.3238783512</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>600.445854888147</v>
+        <v>1012.26618502985</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>699.250316308899</v>
+        <v>1021.57615728591</v>
       </c>
       <c r="C6" t="n">
-        <v>-6641.55350148225</v>
+        <v>-5380.44912451408</v>
       </c>
       <c r="D6" t="n">
-        <v>-10138.2687542983</v>
+        <v>-8975.92749661508</v>
       </c>
       <c r="E6" t="n">
-        <v>7573.91001647751</v>
+        <v>7319.41554813831</v>
       </c>
       <c r="F6" t="n">
-        <v>10257.3084836475</v>
+        <v>10383.1679438645</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>695.250316308899</v>
+        <v>1017.57615728591</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>566.014897586359</v>
+        <v>951.34675683549</v>
       </c>
       <c r="C7" t="n">
-        <v>-6784.25606889991</v>
+        <v>-5753.83720762505</v>
       </c>
       <c r="D7" t="n">
-        <v>-10718.2154815676</v>
+        <v>-9367.34129307188</v>
       </c>
       <c r="E7" t="n">
-        <v>7863.40110492018</v>
+        <v>7529.62656937278</v>
       </c>
       <c r="F7" t="n">
-        <v>11718.0803621266</v>
+        <v>11260.8562026312</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>562.014897586359</v>
+        <v>947.34675683549</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>528.605882302835</v>
+        <v>848.670408531436</v>
       </c>
       <c r="C8" t="n">
-        <v>-7141.55345516904</v>
+        <v>-6675.39082952321</v>
       </c>
       <c r="D8" t="n">
-        <v>-12179.1515771609</v>
+        <v>-10164.3387695502</v>
       </c>
       <c r="E8" t="n">
-        <v>8307.1531473216</v>
+        <v>7746.62982859722</v>
       </c>
       <c r="F8" t="n">
-        <v>12241.4311491273</v>
+        <v>10905.2431614192</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>473.605882302835</v>
+        <v>793.670408531436</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>826.335348644812</v>
+        <v>1508.20737454056</v>
       </c>
       <c r="C9" t="n">
-        <v>-7758.12394227733</v>
+        <v>-5681.69090501813</v>
       </c>
       <c r="D9" t="n">
-        <v>-11560.8009879543</v>
+        <v>-11189.1992261596</v>
       </c>
       <c r="E9" t="n">
-        <v>9537.00999641338</v>
+        <v>9380.96498267031</v>
       </c>
       <c r="F9" t="n">
-        <v>12503.8969242757</v>
+        <v>13403.271024244</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>23</v>
       </c>
       <c r="I9" t="n">
-        <v>803.335348644812</v>
+        <v>1485.20737454056</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2737.61577738189</v>
+        <v>3386.31800563194</v>
       </c>
       <c r="C10" t="n">
-        <v>-5800.86656345428</v>
+        <v>-4657.04017948331</v>
       </c>
       <c r="D10" t="n">
-        <v>-10146.9100887366</v>
+        <v>-8672.60599727292</v>
       </c>
       <c r="E10" t="n">
-        <v>12173.2095416727</v>
+        <v>11246.7156036003</v>
       </c>
       <c r="F10" t="n">
-        <v>16114.4588053005</v>
+        <v>15211.3101263799</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>2490.61577738189</v>
+        <v>3139.31800563194</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2924.62023829265</v>
+        <v>3485.30503506909</v>
       </c>
       <c r="C11" t="n">
-        <v>-6409.07199778533</v>
+        <v>-4647.56288025178</v>
       </c>
       <c r="D11" t="n">
-        <v>-11858.2949873111</v>
+        <v>-8444.18869003268</v>
       </c>
       <c r="E11" t="n">
-        <v>12881.0335474125</v>
+        <v>12356.2860155526</v>
       </c>
       <c r="F11" t="n">
-        <v>17141.3518794767</v>
+        <v>15329.7259545535</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>2637.62023829265</v>
+        <v>3198.30503506909</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>803.671304539392</v>
+        <v>902.091031500848</v>
       </c>
       <c r="C12" t="n">
-        <v>-8622.23261006976</v>
+        <v>-7160.45025356945</v>
       </c>
       <c r="D12" t="n">
-        <v>-13862.1511239935</v>
+        <v>-12978.8649676303</v>
       </c>
       <c r="E12" t="n">
-        <v>11104.2397160113</v>
+        <v>9744.29549746244</v>
       </c>
       <c r="F12" t="n">
-        <v>16156.8100470345</v>
+        <v>14012.7196356717</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>740.671304539392</v>
+        <v>839.091031500848</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>526.674067134805</v>
+        <v>427.004062218944</v>
       </c>
       <c r="C13" t="n">
-        <v>-9799.24777543299</v>
+        <v>-8770.15275742229</v>
       </c>
       <c r="D13" t="n">
-        <v>-14508.8175622325</v>
+        <v>-13352.7177977981</v>
       </c>
       <c r="E13" t="n">
-        <v>11445.2418675748</v>
+        <v>10056.5242311196</v>
       </c>
       <c r="F13" t="n">
-        <v>16207.8276613012</v>
+        <v>13689.3854114646</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>517.674067134805</v>
+        <v>418.004062218944</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>708.861907917163</v>
+        <v>450.978908464977</v>
       </c>
       <c r="C14" t="n">
-        <v>-10301.6575775799</v>
+        <v>-8435.574787013</v>
       </c>
       <c r="D14" t="n">
-        <v>-16355.1011789573</v>
+        <v>-14533.4895406246</v>
       </c>
       <c r="E14" t="n">
-        <v>11616.4711271254</v>
+        <v>9955.90275475545</v>
       </c>
       <c r="F14" t="n">
-        <v>17966.0297598947</v>
+        <v>13940.5859554433</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>703.861907917163</v>
+        <v>445.978908464977</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>830.515202300471</v>
+        <v>393.753794310461</v>
       </c>
       <c r="C15" t="n">
-        <v>-10715.7121378085</v>
+        <v>-9348.33801907916</v>
       </c>
       <c r="D15" t="n">
-        <v>-16964.6937843172</v>
+        <v>-14573.9992095977</v>
       </c>
       <c r="E15" t="n">
-        <v>12040.2153063375</v>
+        <v>10462.8602811775</v>
       </c>
       <c r="F15" t="n">
-        <v>16546.0095016951</v>
+        <v>16134.8415678754</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>828.515202300471</v>
+        <v>391.753794310461</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>859.3931535822</v>
+        <v>679.383813819126</v>
       </c>
       <c r="C16" t="n">
-        <v>-10933.1503988743</v>
+        <v>-9993.36081548146</v>
       </c>
       <c r="D16" t="n">
-        <v>-16552.222814192</v>
+        <v>-15778.0726785605</v>
       </c>
       <c r="E16" t="n">
-        <v>13468.3771467037</v>
+        <v>10959.6292754931</v>
       </c>
       <c r="F16" t="n">
-        <v>18800.9677074612</v>
+        <v>18894.3930891829</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>859.3931535822</v>
+        <v>679.383813819126</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>629.69848657499</v>
+        <v>925.908395183807</v>
       </c>
       <c r="C17" t="n">
-        <v>-11089.4653254629</v>
+        <v>-10921.351267329</v>
       </c>
       <c r="D17" t="n">
-        <v>-16326.76646989</v>
+        <v>-16532.0830328913</v>
       </c>
       <c r="E17" t="n">
-        <v>12792.2723678319</v>
+        <v>12033.7854100576</v>
       </c>
       <c r="F17" t="n">
-        <v>18956.0208107674</v>
+        <v>16911.9738881487</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>625.69848657499</v>
+        <v>921.908395183807</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>582.733158935659</v>
+        <v>884.66187319565</v>
       </c>
       <c r="C18" t="n">
-        <v>-11406.8681747938</v>
+        <v>-11019.5137644409</v>
       </c>
       <c r="D18" t="n">
-        <v>-17679.472573148</v>
+        <v>-16683.9195165412</v>
       </c>
       <c r="E18" t="n">
-        <v>13770.8609057621</v>
+        <v>11746.2119051833</v>
       </c>
       <c r="F18" t="n">
-        <v>18403.4136670379</v>
+        <v>17844.6240020149</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>577.733158935659</v>
+        <v>879.66187319565</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>578.769936992637</v>
+        <v>1072.33519040795</v>
       </c>
       <c r="C19" t="n">
-        <v>-11689.2303114223</v>
+        <v>-10786.5642156257</v>
       </c>
       <c r="D19" t="n">
-        <v>-17086.3040718233</v>
+        <v>-17195.5252572826</v>
       </c>
       <c r="E19" t="n">
-        <v>13338.8292346816</v>
+        <v>13112.0166250684</v>
       </c>
       <c r="F19" t="n">
-        <v>19978.7911440287</v>
+        <v>17864.259836413</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>570.769936992637</v>
+        <v>1064.33519040795</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>671.997618717657</v>
+        <v>921.559493636942</v>
       </c>
       <c r="C20" t="n">
-        <v>-12624.2122337339</v>
+        <v>-11508.4045891216</v>
       </c>
       <c r="D20" t="n">
-        <v>-17900.5371281705</v>
+        <v>-16344.296478888</v>
       </c>
       <c r="E20" t="n">
-        <v>14719.0550186382</v>
+        <v>12981.6554131958</v>
       </c>
       <c r="F20" t="n">
-        <v>20170.6647130911</v>
+        <v>18840.0903427408</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>668.997618717657</v>
+        <v>918.559493636942</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>845.809477548986</v>
+        <v>1661.42441545168</v>
       </c>
       <c r="C21" t="n">
-        <v>-12642.617501532</v>
+        <v>-10008.0398591448</v>
       </c>
       <c r="D21" t="n">
-        <v>-18570.0479249796</v>
+        <v>-16253.1862109602</v>
       </c>
       <c r="E21" t="n">
-        <v>15124.457579248</v>
+        <v>13699.6543779968</v>
       </c>
       <c r="F21" t="n">
-        <v>22103.5084183342</v>
+        <v>18982.3793065235</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>842.809477548986</v>
+        <v>1658.42441545168</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3055.94580593447</v>
+        <v>3789.66881149741</v>
       </c>
       <c r="C22" t="n">
-        <v>-10336.6510972727</v>
+        <v>-8402.6086874197</v>
       </c>
       <c r="D22" t="n">
-        <v>-16757.1390908431</v>
+        <v>-14273.918792528</v>
       </c>
       <c r="E22" t="n">
-        <v>17849.9301420488</v>
+        <v>15800.0155171395</v>
       </c>
       <c r="F22" t="n">
-        <v>25614.9192919092</v>
+        <v>23118.5862105633</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3051.94580593447</v>
+        <v>3785.66881149741</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3083.62560647595</v>
+        <v>4055.89210110222</v>
       </c>
       <c r="C23" t="n">
-        <v>-10351.1518700018</v>
+        <v>-8464.62148753916</v>
       </c>
       <c r="D23" t="n">
-        <v>-17335.8333214088</v>
+        <v>-14587.5715330953</v>
       </c>
       <c r="E23" t="n">
-        <v>18691.3474153003</v>
+        <v>16327.5224732371</v>
       </c>
       <c r="F23" t="n">
-        <v>26327.5716699831</v>
+        <v>24629.7155258403</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>3077.62560647595</v>
+        <v>4049.89210110222</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>399.202263036607</v>
+        <v>1588.00577821121</v>
       </c>
       <c r="C24" t="n">
-        <v>-14360.6049721256</v>
+        <v>-11979.2232229093</v>
       </c>
       <c r="D24" t="n">
-        <v>-20576.0257466061</v>
+        <v>-17293.6685569251</v>
       </c>
       <c r="E24" t="n">
-        <v>17342.3226170987</v>
+        <v>14217.637257512</v>
       </c>
       <c r="F24" t="n">
-        <v>24909.3226913198</v>
+        <v>21520.5216242682</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>394.202263036607</v>
+        <v>1583.00577821121</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>254.653511515524</v>
+        <v>1290.14842648889</v>
       </c>
       <c r="C25" t="n">
-        <v>-13422.6398631257</v>
+        <v>-11948.0477591077</v>
       </c>
       <c r="D25" t="n">
-        <v>-21223.5557697564</v>
+        <v>-18325.1831857242</v>
       </c>
       <c r="E25" t="n">
-        <v>16320.319664644</v>
+        <v>14220.9247300219</v>
       </c>
       <c r="F25" t="n">
-        <v>24356.1190609799</v>
+        <v>21811.2098249741</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>251.653511515524</v>
+        <v>1287.14842648889</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>617.240314983996</v>
+        <v>1542.83899233033</v>
       </c>
       <c r="C26" t="n">
-        <v>-14246.4350001114</v>
+        <v>-12183.8259940707</v>
       </c>
       <c r="D26" t="n">
-        <v>-21946.2918540999</v>
+        <v>-18360.0275096089</v>
       </c>
       <c r="E26" t="n">
-        <v>19141.3204343081</v>
+        <v>14920.1782325675</v>
       </c>
       <c r="F26" t="n">
-        <v>25188.9849446096</v>
+        <v>21944.1591326177</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>617.240314983996</v>
+        <v>1542.83899233033</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>490.503108517731</v>
+        <v>1663.45563213789</v>
       </c>
       <c r="C27" t="n">
-        <v>-14115.8870844703</v>
+        <v>-12392.7483786366</v>
       </c>
       <c r="D27" t="n">
-        <v>-23591.1470954904</v>
+        <v>-17558.4273665771</v>
       </c>
       <c r="E27" t="n">
-        <v>17267.8674949131</v>
+        <v>16366.7288792828</v>
       </c>
       <c r="F27" t="n">
-        <v>26082.0096496823</v>
+        <v>22548.3468350121</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>490.503108517731</v>
+        <v>1663.45563213789</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>480.643144018534</v>
+        <v>1569.1060119139</v>
       </c>
       <c r="C28" t="n">
-        <v>-14703.1405700293</v>
+        <v>-13924.3827910606</v>
       </c>
       <c r="D28" t="n">
-        <v>-23486.3595305284</v>
+        <v>-17531.2804563351</v>
       </c>
       <c r="E28" t="n">
-        <v>18390.8412767518</v>
+        <v>15862.9350612807</v>
       </c>
       <c r="F28" t="n">
-        <v>26325.9211287968</v>
+        <v>23538.3302613666</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>478.643144018534</v>
+        <v>1567.1060119139</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>464.152493918417</v>
+        <v>1826.83899140495</v>
       </c>
       <c r="C29" t="n">
-        <v>-14867.209477622</v>
+        <v>-12887.826195639</v>
       </c>
       <c r="D29" t="n">
-        <v>-23544.7920381115</v>
+        <v>-19715.0453837033</v>
       </c>
       <c r="E29" t="n">
-        <v>17516.2374614652</v>
+        <v>16465.7773948718</v>
       </c>
       <c r="F29" t="n">
-        <v>27443.3554699447</v>
+        <v>22472.9266090727</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>464.152493918417</v>
+        <v>1826.83899140495</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>610.207576220172</v>
+        <v>1850.13327489385</v>
       </c>
       <c r="C30" t="n">
-        <v>-14465.5468732438</v>
+        <v>-12883.9821068729</v>
       </c>
       <c r="D30" t="n">
-        <v>-24499.7243198165</v>
+        <v>-21170.6635296528</v>
       </c>
       <c r="E30" t="n">
-        <v>20094.9624399951</v>
+        <v>17216.3508741748</v>
       </c>
       <c r="F30" t="n">
-        <v>27994.9643051689</v>
+        <v>22755.8311744084</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>608.207576220172</v>
+        <v>1848.13327489385</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>635.278317875972</v>
+        <v>1957.79697734749</v>
       </c>
       <c r="C31" t="n">
-        <v>-15871.5698414037</v>
+        <v>-13735.2401040322</v>
       </c>
       <c r="D31" t="n">
-        <v>-23021.5153010527</v>
+        <v>-19145.8515208165</v>
       </c>
       <c r="E31" t="n">
-        <v>18190.1260870151</v>
+        <v>15793.2359390065</v>
       </c>
       <c r="F31" t="n">
-        <v>28673.1878372102</v>
+        <v>23202.0639113307</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>634.278317875972</v>
+        <v>1956.79697734749</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>635.587657418462</v>
+        <v>1993.42883341428</v>
       </c>
       <c r="C32" t="n">
-        <v>-16654.9037865279</v>
+        <v>-14223.7408270208</v>
       </c>
       <c r="D32" t="n">
-        <v>-23964.8720970878</v>
+        <v>-19780.2167449286</v>
       </c>
       <c r="E32" t="n">
-        <v>18568.7392203158</v>
+        <v>17215.6353591038</v>
       </c>
       <c r="F32" t="n">
-        <v>29858.231850594</v>
+        <v>23641.8331318792</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>632.587657418462</v>
+        <v>1990.42883341428</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1007.62107058461</v>
+        <v>2391.73979885791</v>
       </c>
       <c r="C33" t="n">
-        <v>-16392.3189650854</v>
+        <v>-13733.4580309501</v>
       </c>
       <c r="D33" t="n">
-        <v>-25425.3711079928</v>
+        <v>-20974.6701380914</v>
       </c>
       <c r="E33" t="n">
-        <v>20257.492228389</v>
+        <v>18691.9382798754</v>
       </c>
       <c r="F33" t="n">
-        <v>29479.8098985266</v>
+        <v>25283.894713524</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1006.62107058461</v>
+        <v>2390.73979885791</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>3080.40412062025</v>
+        <v>4278.10849225662</v>
       </c>
       <c r="C34" t="n">
-        <v>-14406.2975471038</v>
+        <v>-12598.4287026945</v>
       </c>
       <c r="D34" t="n">
-        <v>-25116.0623669696</v>
+        <v>-18514.6096165695</v>
       </c>
       <c r="E34" t="n">
-        <v>22674.3091346988</v>
+        <v>20690.4122380964</v>
       </c>
       <c r="F34" t="n">
-        <v>33234.4583818215</v>
+        <v>27199.3858847017</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>3052.40412062025</v>
+        <v>4250.10849225662</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3381.24701690342</v>
+        <v>4681.7528088857</v>
       </c>
       <c r="C35" t="n">
-        <v>-14817.597324369</v>
+        <v>-12010.477862321</v>
       </c>
       <c r="D35" t="n">
-        <v>-25045.974928386</v>
+        <v>-19158.7181287324</v>
       </c>
       <c r="E35" t="n">
-        <v>21992.2058225082</v>
+        <v>22820.3085524915</v>
       </c>
       <c r="F35" t="n">
-        <v>34389.8814474543</v>
+        <v>29527.684226091</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>3055.24701690342</v>
+        <v>4355.7528088857</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>733.532464512287</v>
+        <v>2033.78293528697</v>
       </c>
       <c r="C36" t="n">
-        <v>-17745.4016898091</v>
+        <v>-15981.4055100726</v>
       </c>
       <c r="D36" t="n">
-        <v>-29253.4487777619</v>
+        <v>-22402.2611564226</v>
       </c>
       <c r="E36" t="n">
-        <v>20102.223314961</v>
+        <v>19903.3069567922</v>
       </c>
       <c r="F36" t="n">
-        <v>33989.6394807158</v>
+        <v>27090.5084819999</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>559.532464512287</v>
+        <v>1859.78293528697</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/Dengue fever.xlsx
+++ b/outcome/appendix/data/PHSMs/Dengue fever.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>583.269232182757</v>
+        <v>674.533477306295</v>
       </c>
       <c r="C2" t="n">
-        <v>-2099.21751673993</v>
+        <v>-2310.7183128372</v>
       </c>
       <c r="D2" t="n">
-        <v>-4215.88333457504</v>
+        <v>-4476.58642422337</v>
       </c>
       <c r="E2" t="n">
-        <v>3724.31652654681</v>
+        <v>4032.54118717923</v>
       </c>
       <c r="F2" t="n">
-        <v>4956.41332042878</v>
+        <v>5347.35016396873</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>512.269232182757</v>
+        <v>603.533477306295</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>927.228868366581</v>
+        <v>930.134141954815</v>
       </c>
       <c r="C3" t="n">
-        <v>-3153.04018429487</v>
+        <v>-3502.40253243951</v>
       </c>
       <c r="D3" t="n">
-        <v>-5786.02009523547</v>
+        <v>-6161.44492031651</v>
       </c>
       <c r="E3" t="n">
-        <v>5110.00207521072</v>
+        <v>5144.4068776968</v>
       </c>
       <c r="F3" t="n">
-        <v>7989.24101037708</v>
+        <v>7232.60577627223</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>910.228868366581</v>
+        <v>913.134141954815</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>1050.97111514446</v>
+        <v>925.043745451429</v>
       </c>
       <c r="C4" t="n">
-        <v>-4209.45840150159</v>
+        <v>-4369.91203085962</v>
       </c>
       <c r="D4" t="n">
-        <v>-7112.9907475051</v>
+        <v>-6951.81719197223</v>
       </c>
       <c r="E4" t="n">
-        <v>6715.83389398167</v>
+        <v>6528.14358667514</v>
       </c>
       <c r="F4" t="n">
-        <v>9828.08141618121</v>
+        <v>8427.24006447255</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>1034.97111514446</v>
+        <v>909.043745451429</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>1018.26618502985</v>
+        <v>1268.63552898026</v>
       </c>
       <c r="C5" t="n">
-        <v>-4935.45562634775</v>
+        <v>-5326.28013023847</v>
       </c>
       <c r="D5" t="n">
-        <v>-8084.6717682033</v>
+        <v>-7586.18290014574</v>
       </c>
       <c r="E5" t="n">
-        <v>7385.84548359972</v>
+        <v>7508.23083973534</v>
       </c>
       <c r="F5" t="n">
-        <v>10569.3238783512</v>
+        <v>10097.2145874956</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>1012.26618502985</v>
+        <v>1262.63552898026</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>1021.57615728591</v>
+        <v>1172.20628630921</v>
       </c>
       <c r="C6" t="n">
-        <v>-5380.44912451408</v>
+        <v>-5553.37856274857</v>
       </c>
       <c r="D6" t="n">
-        <v>-8975.92749661508</v>
+        <v>-8812.26422027308</v>
       </c>
       <c r="E6" t="n">
-        <v>7319.41554813831</v>
+        <v>7822.88862945844</v>
       </c>
       <c r="F6" t="n">
-        <v>10383.1679438645</v>
+        <v>10670.627366009</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>1017.57615728591</v>
+        <v>1168.20628630921</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>951.34675683549</v>
+        <v>1154.59803702287</v>
       </c>
       <c r="C7" t="n">
-        <v>-5753.83720762505</v>
+        <v>-6453.99678936793</v>
       </c>
       <c r="D7" t="n">
-        <v>-9367.34129307188</v>
+        <v>-9407.84143755497</v>
       </c>
       <c r="E7" t="n">
-        <v>7529.62656937278</v>
+        <v>7956.82542546719</v>
       </c>
       <c r="F7" t="n">
-        <v>11260.8562026312</v>
+        <v>11364.8823554887</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>947.34675683549</v>
+        <v>1150.59803702287</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>848.670408531436</v>
+        <v>1322.16637347917</v>
       </c>
       <c r="C8" t="n">
-        <v>-6675.39082952321</v>
+        <v>-6805.37116733225</v>
       </c>
       <c r="D8" t="n">
-        <v>-10164.3387695502</v>
+        <v>-10208.7097823037</v>
       </c>
       <c r="E8" t="n">
-        <v>7746.62982859722</v>
+        <v>9680.95872548563</v>
       </c>
       <c r="F8" t="n">
-        <v>10905.2431614192</v>
+        <v>12648.5218862058</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>793.670408531436</v>
+        <v>1267.16637347917</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1508.20737454056</v>
+        <v>1509.91505603362</v>
       </c>
       <c r="C9" t="n">
-        <v>-5681.69090501813</v>
+        <v>-6688.01735433642</v>
       </c>
       <c r="D9" t="n">
-        <v>-11189.1992261596</v>
+        <v>-10788.8928326415</v>
       </c>
       <c r="E9" t="n">
-        <v>9380.96498267031</v>
+        <v>9278.5179458427</v>
       </c>
       <c r="F9" t="n">
-        <v>13403.271024244</v>
+        <v>13613.2052435538</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>23</v>
       </c>
       <c r="I9" t="n">
-        <v>1485.20737454056</v>
+        <v>1486.91505603362</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3386.31800563194</v>
+        <v>3705.41769922584</v>
       </c>
       <c r="C10" t="n">
-        <v>-4657.04017948331</v>
+        <v>-4751.3633205419</v>
       </c>
       <c r="D10" t="n">
-        <v>-8672.60599727292</v>
+        <v>-8986.18414498664</v>
       </c>
       <c r="E10" t="n">
-        <v>11246.7156036003</v>
+        <v>11167.0433800117</v>
       </c>
       <c r="F10" t="n">
-        <v>15211.3101263799</v>
+        <v>16789.2584283748</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>3139.31800563194</v>
+        <v>3458.41769922584</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>3485.30503506909</v>
+        <v>3826.83583851984</v>
       </c>
       <c r="C11" t="n">
-        <v>-4647.56288025178</v>
+        <v>-4538.77588387875</v>
       </c>
       <c r="D11" t="n">
-        <v>-8444.18869003268</v>
+        <v>-9330.40845449725</v>
       </c>
       <c r="E11" t="n">
-        <v>12356.2860155526</v>
+        <v>12099.033108123</v>
       </c>
       <c r="F11" t="n">
-        <v>15329.7259545535</v>
+        <v>17331.0449573938</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>3198.30503506909</v>
+        <v>3539.83583851984</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>902.091031500848</v>
+        <v>1515.48436807474</v>
       </c>
       <c r="C12" t="n">
-        <v>-7160.45025356945</v>
+        <v>-7227.30462921143</v>
       </c>
       <c r="D12" t="n">
-        <v>-12978.8649676303</v>
+        <v>-11986.2135064045</v>
       </c>
       <c r="E12" t="n">
-        <v>9744.29549746244</v>
+        <v>9523.72825405821</v>
       </c>
       <c r="F12" t="n">
-        <v>14012.7196356717</v>
+        <v>15307.6059131303</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>839.091031500848</v>
+        <v>1452.48436807474</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>427.004062218944</v>
+        <v>1296.14944142203</v>
       </c>
       <c r="C13" t="n">
-        <v>-8770.15275742229</v>
+        <v>-7821.60710195402</v>
       </c>
       <c r="D13" t="n">
-        <v>-13352.7177977981</v>
+        <v>-12133.6667288215</v>
       </c>
       <c r="E13" t="n">
-        <v>10056.5242311196</v>
+        <v>10139.3193058186</v>
       </c>
       <c r="F13" t="n">
-        <v>13689.3854114646</v>
+        <v>14421.3297098356</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>418.004062218944</v>
+        <v>1287.14944142203</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>450.978908464977</v>
+        <v>1534.72519523603</v>
       </c>
       <c r="C14" t="n">
-        <v>-8435.574787013</v>
+        <v>-7288.79839242782</v>
       </c>
       <c r="D14" t="n">
-        <v>-14533.4895406246</v>
+        <v>-12877.8581958652</v>
       </c>
       <c r="E14" t="n">
-        <v>9955.90275475545</v>
+        <v>10726.108768522</v>
       </c>
       <c r="F14" t="n">
-        <v>13940.5859554433</v>
+        <v>15873.2355371259</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>445.978908464977</v>
+        <v>1529.72519523603</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>393.753794310461</v>
+        <v>1560.68299236137</v>
       </c>
       <c r="C15" t="n">
-        <v>-9348.33801907916</v>
+        <v>-8662.34310140831</v>
       </c>
       <c r="D15" t="n">
-        <v>-14573.9992095977</v>
+        <v>-12452.0179838166</v>
       </c>
       <c r="E15" t="n">
-        <v>10462.8602811775</v>
+        <v>10990.9838339594</v>
       </c>
       <c r="F15" t="n">
-        <v>16134.8415678754</v>
+        <v>15122.0349857898</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>391.753794310461</v>
+        <v>1558.68299236137</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>679.383813819126</v>
+        <v>1694.74150622301</v>
       </c>
       <c r="C16" t="n">
-        <v>-9993.36081548146</v>
+        <v>-9610.64361642766</v>
       </c>
       <c r="D16" t="n">
-        <v>-15778.0726785605</v>
+        <v>-14181.5068116465</v>
       </c>
       <c r="E16" t="n">
-        <v>10959.6292754931</v>
+        <v>11591.4283101512</v>
       </c>
       <c r="F16" t="n">
-        <v>18894.3930891829</v>
+        <v>15728.6817228188</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>679.383813819126</v>
+        <v>1694.74150622301</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>925.908395183807</v>
+        <v>1703.48840746293</v>
       </c>
       <c r="C17" t="n">
-        <v>-10921.351267329</v>
+        <v>-9197.37463549991</v>
       </c>
       <c r="D17" t="n">
-        <v>-16532.0830328913</v>
+        <v>-16000.7286155952</v>
       </c>
       <c r="E17" t="n">
-        <v>12033.7854100576</v>
+        <v>11871.6881436641</v>
       </c>
       <c r="F17" t="n">
-        <v>16911.9738881487</v>
+        <v>17678.0792161908</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>921.908395183807</v>
+        <v>1699.48840746293</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>884.66187319565</v>
+        <v>1854.73780542662</v>
       </c>
       <c r="C18" t="n">
-        <v>-11019.5137644409</v>
+        <v>-9375.56890686086</v>
       </c>
       <c r="D18" t="n">
-        <v>-16683.9195165412</v>
+        <v>-15470.5886751678</v>
       </c>
       <c r="E18" t="n">
-        <v>11746.2119051833</v>
+        <v>12370.1821800196</v>
       </c>
       <c r="F18" t="n">
-        <v>17844.6240020149</v>
+        <v>18413.7360864295</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>879.66187319565</v>
+        <v>1849.73780542662</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>1072.33519040795</v>
+        <v>1915.99725680717</v>
       </c>
       <c r="C19" t="n">
-        <v>-10786.5642156257</v>
+        <v>-10104.7206627568</v>
       </c>
       <c r="D19" t="n">
-        <v>-17195.5252572826</v>
+        <v>-15422.7759503827</v>
       </c>
       <c r="E19" t="n">
-        <v>13112.0166250684</v>
+        <v>12948.1559169733</v>
       </c>
       <c r="F19" t="n">
-        <v>17864.259836413</v>
+        <v>17646.3461635621</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>1064.33519040795</v>
+        <v>1907.99725680717</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>921.559493636942</v>
+        <v>1920.72250282356</v>
       </c>
       <c r="C20" t="n">
-        <v>-11508.4045891216</v>
+        <v>-10815.7025400876</v>
       </c>
       <c r="D20" t="n">
-        <v>-16344.296478888</v>
+        <v>-16593.6804536422</v>
       </c>
       <c r="E20" t="n">
-        <v>12981.6554131958</v>
+        <v>13343.5989376166</v>
       </c>
       <c r="F20" t="n">
-        <v>18840.0903427408</v>
+        <v>19437.544521249</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>918.559493636942</v>
+        <v>1917.72250282356</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1661.42441545168</v>
+        <v>2139.88466307538</v>
       </c>
       <c r="C21" t="n">
-        <v>-10008.0398591448</v>
+        <v>-10438.3111044876</v>
       </c>
       <c r="D21" t="n">
-        <v>-16253.1862109602</v>
+        <v>-17677.6314896446</v>
       </c>
       <c r="E21" t="n">
-        <v>13699.6543779968</v>
+        <v>14575.5573876947</v>
       </c>
       <c r="F21" t="n">
-        <v>18982.3793065235</v>
+        <v>19691.5216898487</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>1658.42441545168</v>
+        <v>2136.88466307538</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3789.66881149741</v>
+        <v>4197.18099757058</v>
       </c>
       <c r="C22" t="n">
-        <v>-8402.6086874197</v>
+        <v>-9375.37310581566</v>
       </c>
       <c r="D22" t="n">
-        <v>-14273.918792528</v>
+        <v>-16095.1818702423</v>
       </c>
       <c r="E22" t="n">
-        <v>15800.0155171395</v>
+        <v>17478.9422749149</v>
       </c>
       <c r="F22" t="n">
-        <v>23118.5862105633</v>
+        <v>22973.4105552361</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3785.66881149741</v>
+        <v>4193.18099757058</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4055.89210110222</v>
+        <v>4541.95007530162</v>
       </c>
       <c r="C23" t="n">
-        <v>-8464.62148753916</v>
+        <v>-9371.60527205315</v>
       </c>
       <c r="D23" t="n">
-        <v>-14587.5715330953</v>
+        <v>-16592.9225710943</v>
       </c>
       <c r="E23" t="n">
-        <v>16327.5224732371</v>
+        <v>17342.8628935149</v>
       </c>
       <c r="F23" t="n">
-        <v>24629.7155258403</v>
+        <v>22321.9618662149</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>4049.89210110222</v>
+        <v>4535.95007530162</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1588.00577821121</v>
+        <v>2311.23261539981</v>
       </c>
       <c r="C24" t="n">
-        <v>-11979.2232229093</v>
+        <v>-11194.2221804641</v>
       </c>
       <c r="D24" t="n">
-        <v>-17293.6685569251</v>
+        <v>-18880.824534938</v>
       </c>
       <c r="E24" t="n">
-        <v>14217.637257512</v>
+        <v>15504.6930636287</v>
       </c>
       <c r="F24" t="n">
-        <v>21520.5216242682</v>
+        <v>21862.2674522758</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>1583.00577821121</v>
+        <v>2306.23261539981</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1290.14842648889</v>
+        <v>1861.65601584711</v>
       </c>
       <c r="C25" t="n">
-        <v>-11948.0477591077</v>
+        <v>-11456.8779847881</v>
       </c>
       <c r="D25" t="n">
-        <v>-18325.1831857242</v>
+        <v>-19040.7422006275</v>
       </c>
       <c r="E25" t="n">
-        <v>14220.9247300219</v>
+        <v>15085.7589116467</v>
       </c>
       <c r="F25" t="n">
-        <v>21811.2098249741</v>
+        <v>22114.5870089555</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>1287.14842648889</v>
+        <v>1858.65601584711</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1542.83899233033</v>
+        <v>2200.47719821998</v>
       </c>
       <c r="C26" t="n">
-        <v>-12183.8259940707</v>
+        <v>-12838.5236276752</v>
       </c>
       <c r="D26" t="n">
-        <v>-18360.0275096089</v>
+        <v>-19270.6469893919</v>
       </c>
       <c r="E26" t="n">
-        <v>14920.1782325675</v>
+        <v>17449.4250136633</v>
       </c>
       <c r="F26" t="n">
-        <v>21944.1591326177</v>
+        <v>23624.6748408783</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1542.83899233033</v>
+        <v>2200.47719821998</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1663.45563213789</v>
+        <v>2067.5762493372</v>
       </c>
       <c r="C27" t="n">
-        <v>-12392.7483786366</v>
+        <v>-12564.9429370285</v>
       </c>
       <c r="D27" t="n">
-        <v>-17558.4273665771</v>
+        <v>-19866.2811855258</v>
       </c>
       <c r="E27" t="n">
-        <v>16366.7288792828</v>
+        <v>17506.2280426176</v>
       </c>
       <c r="F27" t="n">
-        <v>22548.3468350121</v>
+        <v>24668.5541778882</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1663.45563213789</v>
+        <v>2067.5762493372</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>1569.1060119139</v>
+        <v>2149.520220086</v>
       </c>
       <c r="C28" t="n">
-        <v>-13924.3827910606</v>
+        <v>-11812.6193763716</v>
       </c>
       <c r="D28" t="n">
-        <v>-17531.2804563351</v>
+        <v>-19677.0244394726</v>
       </c>
       <c r="E28" t="n">
-        <v>15862.9350612807</v>
+        <v>17769.7554012971</v>
       </c>
       <c r="F28" t="n">
-        <v>23538.3302613666</v>
+        <v>23792.3012991677</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>1567.1060119139</v>
+        <v>2147.520220086</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>1826.83899140495</v>
+        <v>2127.19015849952</v>
       </c>
       <c r="C29" t="n">
-        <v>-12887.826195639</v>
+        <v>-13396.5170613154</v>
       </c>
       <c r="D29" t="n">
-        <v>-19715.0453837033</v>
+        <v>-19405.7301998489</v>
       </c>
       <c r="E29" t="n">
-        <v>16465.7773948718</v>
+        <v>18656.2917889785</v>
       </c>
       <c r="F29" t="n">
-        <v>22472.9266090727</v>
+        <v>24363.2804539412</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1826.83899140495</v>
+        <v>2127.19015849952</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>1850.13327489385</v>
+        <v>2128.53493964893</v>
       </c>
       <c r="C30" t="n">
-        <v>-12883.9821068729</v>
+        <v>-14233.2740049739</v>
       </c>
       <c r="D30" t="n">
-        <v>-21170.6635296528</v>
+        <v>-21948.40360086</v>
       </c>
       <c r="E30" t="n">
-        <v>17216.3508741748</v>
+        <v>19277.0806739009</v>
       </c>
       <c r="F30" t="n">
-        <v>22755.8311744084</v>
+        <v>25002.3298443404</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>1848.13327489385</v>
+        <v>2126.53493964893</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>1957.79697734749</v>
+        <v>2096.27303352755</v>
       </c>
       <c r="C31" t="n">
-        <v>-13735.2401040322</v>
+        <v>-14531.7605330382</v>
       </c>
       <c r="D31" t="n">
-        <v>-19145.8515208165</v>
+        <v>-22382.2685007374</v>
       </c>
       <c r="E31" t="n">
-        <v>15793.2359390065</v>
+        <v>18548.3036881345</v>
       </c>
       <c r="F31" t="n">
-        <v>23202.0639113307</v>
+        <v>24906.0340522241</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1956.79697734749</v>
+        <v>2095.27303352755</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>1993.42883341428</v>
+        <v>2108.02173216854</v>
       </c>
       <c r="C32" t="n">
-        <v>-14223.7408270208</v>
+        <v>-15426.2125991936</v>
       </c>
       <c r="D32" t="n">
-        <v>-19780.2167449286</v>
+        <v>-22745.7580475199</v>
       </c>
       <c r="E32" t="n">
-        <v>17215.6353591038</v>
+        <v>18167.4266155763</v>
       </c>
       <c r="F32" t="n">
-        <v>23641.8331318792</v>
+        <v>25828.657147409</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>1990.42883341428</v>
+        <v>2105.02173216854</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2391.73979885791</v>
+        <v>2928.70199315933</v>
       </c>
       <c r="C33" t="n">
-        <v>-13733.4580309501</v>
+        <v>-14546.918847883</v>
       </c>
       <c r="D33" t="n">
-        <v>-20974.6701380914</v>
+        <v>-22853.2833945633</v>
       </c>
       <c r="E33" t="n">
-        <v>18691.9382798754</v>
+        <v>21126.1823449402</v>
       </c>
       <c r="F33" t="n">
-        <v>25283.894713524</v>
+        <v>24915.1364199817</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>2390.73979885791</v>
+        <v>2927.70199315933</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4278.10849225662</v>
+        <v>4939.49730106679</v>
       </c>
       <c r="C34" t="n">
-        <v>-12598.4287026945</v>
+        <v>-12170.1495778342</v>
       </c>
       <c r="D34" t="n">
-        <v>-18514.6096165695</v>
+        <v>-19861.412381788</v>
       </c>
       <c r="E34" t="n">
-        <v>20690.4122380964</v>
+        <v>23165.457849875</v>
       </c>
       <c r="F34" t="n">
-        <v>27199.3858847017</v>
+        <v>28062.2438435812</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>4250.10849225662</v>
+        <v>4911.49730106679</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4681.7528088857</v>
+        <v>5233.06392238806</v>
       </c>
       <c r="C35" t="n">
-        <v>-12010.477862321</v>
+        <v>-11014.6277181235</v>
       </c>
       <c r="D35" t="n">
-        <v>-19158.7181287324</v>
+        <v>-19167.995287475</v>
       </c>
       <c r="E35" t="n">
-        <v>22820.3085524915</v>
+        <v>22686.1230954688</v>
       </c>
       <c r="F35" t="n">
-        <v>29527.684226091</v>
+        <v>29408.2820143135</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>4355.7528088857</v>
+        <v>4907.06392238806</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2033.78293528697</v>
+        <v>2519.41248265242</v>
       </c>
       <c r="C36" t="n">
-        <v>-15981.4055100726</v>
+        <v>-14080.7709452262</v>
       </c>
       <c r="D36" t="n">
-        <v>-22402.2611564226</v>
+        <v>-20975.1849714228</v>
       </c>
       <c r="E36" t="n">
-        <v>19903.3069567922</v>
+        <v>20441.2515710929</v>
       </c>
       <c r="F36" t="n">
-        <v>27090.5084819999</v>
+        <v>27603.8589481305</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>1859.78293528697</v>
+        <v>2345.41248265242</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/Dengue fever.xlsx
+++ b/outcome/appendix/data/PHSMs/Dengue fever.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>674.533477306295</v>
+        <v>669.123021601995</v>
       </c>
       <c r="C2" t="n">
-        <v>-2310.7183128372</v>
+        <v>-2545.95428984576</v>
       </c>
       <c r="D2" t="n">
-        <v>-4476.58642422337</v>
+        <v>-4246.77033123866</v>
       </c>
       <c r="E2" t="n">
-        <v>4032.54118717923</v>
+        <v>3690.31222591602</v>
       </c>
       <c r="F2" t="n">
-        <v>5347.35016396873</v>
+        <v>5952.93766605698</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>603.533477306295</v>
+        <v>598.123021601995</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>930.134141954815</v>
+        <v>721.464462602777</v>
       </c>
       <c r="C3" t="n">
-        <v>-3502.40253243951</v>
+        <v>-3735.82446594041</v>
       </c>
       <c r="D3" t="n">
-        <v>-6161.44492031651</v>
+        <v>-5635.54471469925</v>
       </c>
       <c r="E3" t="n">
-        <v>5144.4068776968</v>
+        <v>5164.50402721429</v>
       </c>
       <c r="F3" t="n">
-        <v>7232.60577627223</v>
+        <v>7128.21459790502</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>913.134141954815</v>
+        <v>704.464462602777</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>925.043745451429</v>
+        <v>805.465653200318</v>
       </c>
       <c r="C4" t="n">
-        <v>-4369.91203085962</v>
+        <v>-4385.7965138507</v>
       </c>
       <c r="D4" t="n">
-        <v>-6951.81719197223</v>
+        <v>-7219.11332544199</v>
       </c>
       <c r="E4" t="n">
-        <v>6528.14358667514</v>
+        <v>6244.19390624855</v>
       </c>
       <c r="F4" t="n">
-        <v>8427.24006447255</v>
+        <v>8911.55956208006</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>909.043745451429</v>
+        <v>789.465653200318</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>1268.63552898026</v>
+        <v>716.820880584684</v>
       </c>
       <c r="C5" t="n">
-        <v>-5326.28013023847</v>
+        <v>-5266.17793345565</v>
       </c>
       <c r="D5" t="n">
-        <v>-7586.18290014574</v>
+        <v>-8116.64133130306</v>
       </c>
       <c r="E5" t="n">
-        <v>7508.23083973534</v>
+        <v>7058.37116008172</v>
       </c>
       <c r="F5" t="n">
-        <v>10097.2145874956</v>
+        <v>9534.18110903784</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>1262.63552898026</v>
+        <v>710.820880584684</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>1172.20628630921</v>
+        <v>877.765993252498</v>
       </c>
       <c r="C6" t="n">
-        <v>-5553.37856274857</v>
+        <v>-5736.33179020818</v>
       </c>
       <c r="D6" t="n">
-        <v>-8812.26422027308</v>
+        <v>-8972.21045276221</v>
       </c>
       <c r="E6" t="n">
-        <v>7822.88862945844</v>
+        <v>7225.71302887793</v>
       </c>
       <c r="F6" t="n">
-        <v>10670.627366009</v>
+        <v>10541.0210352846</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>1168.20628630921</v>
+        <v>873.765993252498</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1154.59803702287</v>
+        <v>697.192732762604</v>
       </c>
       <c r="C7" t="n">
-        <v>-6453.99678936793</v>
+        <v>-6369.20931216214</v>
       </c>
       <c r="D7" t="n">
-        <v>-9407.84143755497</v>
+        <v>-8841.05459453352</v>
       </c>
       <c r="E7" t="n">
-        <v>7956.82542546719</v>
+        <v>7538.17990629029</v>
       </c>
       <c r="F7" t="n">
-        <v>11364.8823554887</v>
+        <v>11460.3467252102</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>1150.59803702287</v>
+        <v>693.192732762604</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1322.16637347917</v>
+        <v>731.902539784532</v>
       </c>
       <c r="C8" t="n">
-        <v>-6805.37116733225</v>
+        <v>-6872.37854407893</v>
       </c>
       <c r="D8" t="n">
-        <v>-10208.7097823037</v>
+        <v>-10906.3876887174</v>
       </c>
       <c r="E8" t="n">
-        <v>9680.95872548563</v>
+        <v>7696.28412892197</v>
       </c>
       <c r="F8" t="n">
-        <v>12648.5218862058</v>
+        <v>11421.2421419675</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>1267.16637347917</v>
+        <v>676.902539784532</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1509.91505603362</v>
+        <v>1239.33974742786</v>
       </c>
       <c r="C9" t="n">
-        <v>-6688.01735433642</v>
+        <v>-6808.3942477251</v>
       </c>
       <c r="D9" t="n">
-        <v>-10788.8928326415</v>
+        <v>-10213.3412840834</v>
       </c>
       <c r="E9" t="n">
-        <v>9278.5179458427</v>
+        <v>9647.13866708382</v>
       </c>
       <c r="F9" t="n">
-        <v>13613.2052435538</v>
+        <v>12721.5170141943</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>23</v>
       </c>
       <c r="I9" t="n">
-        <v>1486.91505603362</v>
+        <v>1216.33974742786</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3705.41769922584</v>
+        <v>3291.87492072058</v>
       </c>
       <c r="C10" t="n">
-        <v>-4751.3633205419</v>
+        <v>-5484.97340230747</v>
       </c>
       <c r="D10" t="n">
-        <v>-8986.18414498664</v>
+        <v>-9019.18288474367</v>
       </c>
       <c r="E10" t="n">
-        <v>11167.0433800117</v>
+        <v>12363.8026402198</v>
       </c>
       <c r="F10" t="n">
-        <v>16789.2584283748</v>
+        <v>15561.2752436982</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>3458.41769922584</v>
+        <v>3044.87492072058</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>3826.83583851984</v>
+        <v>3436.8321831056</v>
       </c>
       <c r="C11" t="n">
-        <v>-4538.77588387875</v>
+        <v>-4068.39438485392</v>
       </c>
       <c r="D11" t="n">
-        <v>-9330.40845449725</v>
+        <v>-10039.11334277</v>
       </c>
       <c r="E11" t="n">
-        <v>12099.033108123</v>
+        <v>12558.4810830386</v>
       </c>
       <c r="F11" t="n">
-        <v>17331.0449573938</v>
+        <v>17529.8569962622</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>3539.83583851984</v>
+        <v>3149.8321831056</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1515.48436807474</v>
+        <v>1049.93797984718</v>
       </c>
       <c r="C12" t="n">
-        <v>-7227.30462921143</v>
+        <v>-8097.58454051477</v>
       </c>
       <c r="D12" t="n">
-        <v>-11986.2135064045</v>
+        <v>-13879.2534491069</v>
       </c>
       <c r="E12" t="n">
-        <v>9523.72825405821</v>
+        <v>10612.0224710846</v>
       </c>
       <c r="F12" t="n">
-        <v>15307.6059131303</v>
+        <v>15727.5999318542</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>1452.48436807474</v>
+        <v>986.937979847179</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1296.14944142203</v>
+        <v>714.448852933579</v>
       </c>
       <c r="C13" t="n">
-        <v>-7821.60710195402</v>
+        <v>-9114.74884046436</v>
       </c>
       <c r="D13" t="n">
-        <v>-12133.6667288215</v>
+        <v>-14828.3336341997</v>
       </c>
       <c r="E13" t="n">
-        <v>10139.3193058186</v>
+        <v>10800.6683068343</v>
       </c>
       <c r="F13" t="n">
-        <v>14421.3297098356</v>
+        <v>15459.2931587364</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>1287.14944142203</v>
+        <v>705.448852933579</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1534.72519523603</v>
+        <v>708.358492841157</v>
       </c>
       <c r="C14" t="n">
-        <v>-7288.79839242782</v>
+        <v>-10374.6536733719</v>
       </c>
       <c r="D14" t="n">
-        <v>-12877.8581958652</v>
+        <v>-14477.2127560174</v>
       </c>
       <c r="E14" t="n">
-        <v>10726.108768522</v>
+        <v>11193.3760567504</v>
       </c>
       <c r="F14" t="n">
-        <v>15873.2355371259</v>
+        <v>16067.8195040805</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>1529.72519523603</v>
+        <v>703.358492841157</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1560.68299236137</v>
+        <v>720.476964133274</v>
       </c>
       <c r="C15" t="n">
-        <v>-8662.34310140831</v>
+        <v>-10374.3975709764</v>
       </c>
       <c r="D15" t="n">
-        <v>-12452.0179838166</v>
+        <v>-15960.5158899551</v>
       </c>
       <c r="E15" t="n">
-        <v>10990.9838339594</v>
+        <v>12195.7781252619</v>
       </c>
       <c r="F15" t="n">
-        <v>15122.0349857898</v>
+        <v>17107.5297270492</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>1558.68299236137</v>
+        <v>718.476964133274</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>1694.74150622301</v>
+        <v>737.82817378964</v>
       </c>
       <c r="C16" t="n">
-        <v>-9610.64361642766</v>
+        <v>-10912.1933440283</v>
       </c>
       <c r="D16" t="n">
-        <v>-14181.5068116465</v>
+        <v>-17269.685790999</v>
       </c>
       <c r="E16" t="n">
-        <v>11591.4283101512</v>
+        <v>12902.4053898598</v>
       </c>
       <c r="F16" t="n">
-        <v>15728.6817228188</v>
+        <v>17443.0501711101</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1694.74150622301</v>
+        <v>737.82817378964</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>1703.48840746293</v>
+        <v>961.828990504403</v>
       </c>
       <c r="C17" t="n">
-        <v>-9197.37463549991</v>
+        <v>-11433.0364749912</v>
       </c>
       <c r="D17" t="n">
-        <v>-16000.7286155952</v>
+        <v>-18379.9884524787</v>
       </c>
       <c r="E17" t="n">
-        <v>11871.6881436641</v>
+        <v>12716.2491407895</v>
       </c>
       <c r="F17" t="n">
-        <v>17678.0792161908</v>
+        <v>19587.0888400727</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>1699.48840746293</v>
+        <v>957.828990504403</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>1854.73780542662</v>
+        <v>927.067360477741</v>
       </c>
       <c r="C18" t="n">
-        <v>-9375.56890686086</v>
+        <v>-12237.4954051026</v>
       </c>
       <c r="D18" t="n">
-        <v>-15470.5886751678</v>
+        <v>-19555.8911361781</v>
       </c>
       <c r="E18" t="n">
-        <v>12370.1821800196</v>
+        <v>13418.8130915111</v>
       </c>
       <c r="F18" t="n">
-        <v>18413.7360864295</v>
+        <v>19833.2547737286</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>1849.73780542662</v>
+        <v>922.067360477741</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>1915.99725680717</v>
+        <v>766.820368367952</v>
       </c>
       <c r="C19" t="n">
-        <v>-10104.7206627568</v>
+        <v>-12366.8429284656</v>
       </c>
       <c r="D19" t="n">
-        <v>-15422.7759503827</v>
+        <v>-19265.1082597988</v>
       </c>
       <c r="E19" t="n">
-        <v>12948.1559169733</v>
+        <v>13823.4740404374</v>
       </c>
       <c r="F19" t="n">
-        <v>17646.3461635621</v>
+        <v>18689.7768003389</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>1907.99725680717</v>
+        <v>758.820368367952</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>1920.72250282356</v>
+        <v>755.271208881527</v>
       </c>
       <c r="C20" t="n">
-        <v>-10815.7025400876</v>
+        <v>-12162.2556994908</v>
       </c>
       <c r="D20" t="n">
-        <v>-16593.6804536422</v>
+        <v>-19411.2992455641</v>
       </c>
       <c r="E20" t="n">
-        <v>13343.5989376166</v>
+        <v>13293.4877588632</v>
       </c>
       <c r="F20" t="n">
-        <v>19437.544521249</v>
+        <v>18148.5517611925</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>1917.72250282356</v>
+        <v>752.271208881527</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2139.88466307538</v>
+        <v>1241.72502296714</v>
       </c>
       <c r="C21" t="n">
-        <v>-10438.3111044876</v>
+        <v>-12522.1695711801</v>
       </c>
       <c r="D21" t="n">
-        <v>-17677.6314896446</v>
+        <v>-20290.6562565036</v>
       </c>
       <c r="E21" t="n">
-        <v>14575.5573876947</v>
+        <v>14065.5662109771</v>
       </c>
       <c r="F21" t="n">
-        <v>19691.5216898487</v>
+        <v>20163.7404204649</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2136.88466307538</v>
+        <v>1238.72502296714</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4197.18099757058</v>
+        <v>3209.20649013765</v>
       </c>
       <c r="C22" t="n">
-        <v>-9375.37310581566</v>
+        <v>-9953.8080487423</v>
       </c>
       <c r="D22" t="n">
-        <v>-16095.1818702423</v>
+        <v>-19304.3341532947</v>
       </c>
       <c r="E22" t="n">
-        <v>17478.9422749149</v>
+        <v>17239.494986226</v>
       </c>
       <c r="F22" t="n">
-        <v>22973.4105552361</v>
+        <v>23824.037641671</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>4193.18099757058</v>
+        <v>3205.20649013765</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4541.95007530162</v>
+        <v>3381.19240877192</v>
       </c>
       <c r="C23" t="n">
-        <v>-9371.60527205315</v>
+        <v>-10297.6756388554</v>
       </c>
       <c r="D23" t="n">
-        <v>-16592.9225710943</v>
+        <v>-18768.5526540388</v>
       </c>
       <c r="E23" t="n">
-        <v>17342.8628935149</v>
+        <v>17332.2211557377</v>
       </c>
       <c r="F23" t="n">
-        <v>22321.9618662149</v>
+        <v>23707.9458197364</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>4535.95007530162</v>
+        <v>3375.19240877192</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2311.23261539981</v>
+        <v>550.159128203021</v>
       </c>
       <c r="C24" t="n">
-        <v>-11194.2221804641</v>
+        <v>-13656.5421272132</v>
       </c>
       <c r="D24" t="n">
-        <v>-18880.824534938</v>
+        <v>-20452.7847027559</v>
       </c>
       <c r="E24" t="n">
-        <v>15504.6930636287</v>
+        <v>14693.1179033266</v>
       </c>
       <c r="F24" t="n">
-        <v>21862.2674522758</v>
+        <v>21972.8037871084</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>2306.23261539981</v>
+        <v>545.159128203021</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1861.65601584711</v>
+        <v>491.855489026024</v>
       </c>
       <c r="C25" t="n">
-        <v>-11456.8779847881</v>
+        <v>-14563.957693186</v>
       </c>
       <c r="D25" t="n">
-        <v>-19040.7422006275</v>
+        <v>-22598.6623068145</v>
       </c>
       <c r="E25" t="n">
-        <v>15085.7589116467</v>
+        <v>14686.9712964171</v>
       </c>
       <c r="F25" t="n">
-        <v>22114.5870089555</v>
+        <v>21275.9342061248</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>1858.65601584711</v>
+        <v>488.855489026024</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2200.47719821998</v>
+        <v>550.345039655225</v>
       </c>
       <c r="C26" t="n">
-        <v>-12838.5236276752</v>
+        <v>-14224.6436162972</v>
       </c>
       <c r="D26" t="n">
-        <v>-19270.6469893919</v>
+        <v>-21397.4971712646</v>
       </c>
       <c r="E26" t="n">
-        <v>17449.4250136633</v>
+        <v>15056.6652963193</v>
       </c>
       <c r="F26" t="n">
-        <v>23624.6748408783</v>
+        <v>21166.9361822862</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2200.47719821998</v>
+        <v>550.345039655225</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2067.5762493372</v>
+        <v>612.289933272974</v>
       </c>
       <c r="C27" t="n">
-        <v>-12564.9429370285</v>
+        <v>-14574.0183375087</v>
       </c>
       <c r="D27" t="n">
-        <v>-19866.2811855258</v>
+        <v>-22586.8096354868</v>
       </c>
       <c r="E27" t="n">
-        <v>17506.2280426176</v>
+        <v>15587.1423846824</v>
       </c>
       <c r="F27" t="n">
-        <v>24668.5541778882</v>
+        <v>23411.9743159825</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2067.5762493372</v>
+        <v>612.289933272974</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>2149.520220086</v>
+        <v>628.142908199534</v>
       </c>
       <c r="C28" t="n">
-        <v>-11812.6193763716</v>
+        <v>-14510.8807863536</v>
       </c>
       <c r="D28" t="n">
-        <v>-19677.0244394726</v>
+        <v>-22359.5399768796</v>
       </c>
       <c r="E28" t="n">
-        <v>17769.7554012971</v>
+        <v>15692.6037509214</v>
       </c>
       <c r="F28" t="n">
-        <v>23792.3012991677</v>
+        <v>25466.1293186131</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>2147.520220086</v>
+        <v>626.142908199534</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2127.19015849952</v>
+        <v>575.050931699212</v>
       </c>
       <c r="C29" t="n">
-        <v>-13396.5170613154</v>
+        <v>-14343.5842594138</v>
       </c>
       <c r="D29" t="n">
-        <v>-19405.7301998489</v>
+        <v>-23337.9856533679</v>
       </c>
       <c r="E29" t="n">
-        <v>18656.2917889785</v>
+        <v>16808.5686156551</v>
       </c>
       <c r="F29" t="n">
-        <v>24363.2804539412</v>
+        <v>24890.0261684977</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2127.19015849952</v>
+        <v>575.050931699212</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2128.53493964893</v>
+        <v>488.765499368077</v>
       </c>
       <c r="C30" t="n">
-        <v>-14233.2740049739</v>
+        <v>-13788.5053881824</v>
       </c>
       <c r="D30" t="n">
-        <v>-21948.40360086</v>
+        <v>-24437.6212568924</v>
       </c>
       <c r="E30" t="n">
-        <v>19277.0806739009</v>
+        <v>17614.3720409476</v>
       </c>
       <c r="F30" t="n">
-        <v>25002.3298443404</v>
+        <v>24781.363596329</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>2126.53493964893</v>
+        <v>486.765499368077</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2096.27303352755</v>
+        <v>571.969455280402</v>
       </c>
       <c r="C31" t="n">
-        <v>-14531.7605330382</v>
+        <v>-14359.0622595462</v>
       </c>
       <c r="D31" t="n">
-        <v>-22382.2685007374</v>
+        <v>-24015.8795627715</v>
       </c>
       <c r="E31" t="n">
-        <v>18548.3036881345</v>
+        <v>18386.9102087228</v>
       </c>
       <c r="F31" t="n">
-        <v>24906.0340522241</v>
+        <v>25452.5539088846</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>2095.27303352755</v>
+        <v>570.969455280402</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2108.02173216854</v>
+        <v>723.760163076282</v>
       </c>
       <c r="C32" t="n">
-        <v>-15426.2125991936</v>
+        <v>-13769.7906059638</v>
       </c>
       <c r="D32" t="n">
-        <v>-22745.7580475199</v>
+        <v>-24857.573729403</v>
       </c>
       <c r="E32" t="n">
-        <v>18167.4266155763</v>
+        <v>18870.1774146288</v>
       </c>
       <c r="F32" t="n">
-        <v>25828.657147409</v>
+        <v>27166.0586503967</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>2105.02173216854</v>
+        <v>720.760163076282</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2928.70199315933</v>
+        <v>1381.57474398904</v>
       </c>
       <c r="C33" t="n">
-        <v>-14546.918847883</v>
+        <v>-14372.56004875</v>
       </c>
       <c r="D33" t="n">
-        <v>-22853.2833945633</v>
+        <v>-22454.8950526079</v>
       </c>
       <c r="E33" t="n">
-        <v>21126.1823449402</v>
+        <v>19431.4819322545</v>
       </c>
       <c r="F33" t="n">
-        <v>24915.1364199817</v>
+        <v>25806.3303690091</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>2927.70199315933</v>
+        <v>1380.57474398904</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4939.49730106679</v>
+        <v>3532.99383452576</v>
       </c>
       <c r="C34" t="n">
-        <v>-12170.1495778342</v>
+        <v>-12781.7031819401</v>
       </c>
       <c r="D34" t="n">
-        <v>-19861.412381788</v>
+        <v>-20662.2473830704</v>
       </c>
       <c r="E34" t="n">
-        <v>23165.457849875</v>
+        <v>21399.8983673787</v>
       </c>
       <c r="F34" t="n">
-        <v>28062.2438435812</v>
+        <v>28400.9083486306</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>4911.49730106679</v>
+        <v>3504.99383452576</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>5233.06392238806</v>
+        <v>3807.88087533813</v>
       </c>
       <c r="C35" t="n">
-        <v>-11014.6277181235</v>
+        <v>-12865.9195145315</v>
       </c>
       <c r="D35" t="n">
-        <v>-19167.995287475</v>
+        <v>-21432.9736883286</v>
       </c>
       <c r="E35" t="n">
-        <v>22686.1230954688</v>
+        <v>22092.7607746959</v>
       </c>
       <c r="F35" t="n">
-        <v>29408.2820143135</v>
+        <v>28712.4118274571</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>4907.06392238806</v>
+        <v>3481.88087533813</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2519.41248265242</v>
+        <v>1214.92840882248</v>
       </c>
       <c r="C36" t="n">
-        <v>-14080.7709452262</v>
+        <v>-14916.0871065994</v>
       </c>
       <c r="D36" t="n">
-        <v>-20975.1849714228</v>
+        <v>-23148.4088217465</v>
       </c>
       <c r="E36" t="n">
-        <v>20441.2515710929</v>
+        <v>19079.1018098617</v>
       </c>
       <c r="F36" t="n">
-        <v>27603.8589481305</v>
+        <v>28842.4538163386</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>2345.41248265242</v>
+        <v>1040.92840882248</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
